--- a/performances.xlsx
+++ b/performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malteebner/Library/Mobile Documents/com~apple~CloudDocs/Master ETIT/10. Semester/Forschungsarbeit/Code Forschungsarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A424E919-88A8-6640-91A5-4B0BE1D3FB83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A3FD8A-2FE3-B844-8E7D-FB85F395745D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{0C047C73-2AED-574F-B05A-862A7DD3D487}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{0C047C73-2AED-574F-B05A-862A7DD3D487}"/>
   </bookViews>
   <sheets>
     <sheet name="refinery_results" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>BatchSize</t>
   </si>
@@ -179,7 +179,10 @@
     <t>BayessianOpt - hyperopt</t>
   </si>
   <si>
-    <t>actorCritic_VAE</t>
+    <t>base model - with VAE</t>
+  </si>
+  <si>
+    <t>with compression, deterministic - with VAE</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358AB6D0-DA15-D244-B588-E9E7D3C401A4}">
-  <dimension ref="A2:I32"/>
+  <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -867,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="2">
-        <f>E19*F19</f>
+        <f>IF(E19*F19&gt;0,E19*F19,"")</f>
         <v>878267923</v>
       </c>
       <c r="E19" s="2">
@@ -877,13 +880,19 @@
         <v>2516527</v>
       </c>
       <c r="G19" s="3"/>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="2">
-        <f>E20*F20</f>
+        <f t="shared" ref="D20:D50" si="1">IF(E20*F20&gt;0,E20*F20,"")</f>
         <v>845264556</v>
       </c>
       <c r="E20" s="2">
@@ -904,36 +913,42 @@
         <v>41</v>
       </c>
       <c r="D21" s="2">
-        <f>E21*F21</f>
-        <v>811828020</v>
+        <f t="shared" si="1"/>
+        <v>1081099264</v>
       </c>
       <c r="E21" s="2">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="F21" s="2">
-        <v>2490270</v>
+        <v>2875264</v>
       </c>
       <c r="G21" s="3"/>
+      <c r="H21" s="2">
+        <v>2057</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3000</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="2">
-        <f>E22*F22</f>
-        <v>1585100016</v>
+        <f t="shared" si="1"/>
+        <v>903952095</v>
       </c>
       <c r="E22" s="2">
-        <v>492</v>
+        <v>345</v>
       </c>
       <c r="F22" s="2">
-        <v>3221748</v>
+        <v>2620151</v>
       </c>
       <c r="H22" s="2">
-        <v>2534</v>
+        <v>4111</v>
       </c>
       <c r="I22" s="2">
-        <v>600</v>
+        <v>900</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -941,7 +956,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="2">
-        <f>E23*F23</f>
+        <f t="shared" si="1"/>
         <v>790309738</v>
       </c>
       <c r="E23" s="2">
@@ -951,13 +966,19 @@
         <v>2424263</v>
       </c>
       <c r="G23" s="3"/>
+      <c r="H23" s="2">
+        <v>95</v>
+      </c>
+      <c r="I23" s="2">
+        <v>5000</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="2">
-        <f>E24*F24</f>
+        <f t="shared" si="1"/>
         <v>800762800</v>
       </c>
       <c r="E24" s="2">
@@ -975,108 +996,342 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="2">
-        <f>E25*F25</f>
-        <v>809003910</v>
-      </c>
-      <c r="E25" s="2">
-        <v>330</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2451527</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1864</v>
-      </c>
-      <c r="I25" s="2">
-        <v>320000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="C26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>952613640</v>
+      </c>
+      <c r="E26" s="2">
+        <v>363</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2624280</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2593</v>
+      </c>
+      <c r="I26" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>3058520850</v>
+      </c>
+      <c r="E27" s="2">
+        <v>770</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3972105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>877000150</v>
+      </c>
+      <c r="E28" s="2">
+        <v>338</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2594675</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2475</v>
+      </c>
+      <c r="I28" s="2">
+        <v>700</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="1"/>
+        <v>803089590</v>
+      </c>
+      <c r="E29" s="2">
+        <v>326</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2463465</v>
+      </c>
+      <c r="H29" s="2">
+        <v>665</v>
+      </c>
+      <c r="I29" s="2">
+        <v>360000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="1"/>
+        <v>800762800</v>
+      </c>
+      <c r="E30" s="2">
+        <v>328</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2441350</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1864</v>
+      </c>
+      <c r="I30" s="2">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>1104621000</v>
+      </c>
+      <c r="E32" s="2">
+        <v>300</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3682070</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2">
+        <v>1718</v>
+      </c>
+      <c r="I32" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="C33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="1"/>
+        <v>1657138041</v>
+      </c>
+      <c r="E33" s="2">
+        <v>351</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4721191</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2">
+        <v>2203</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="1"/>
+        <v>895253271</v>
+      </c>
+      <c r="E34" s="2">
+        <v>321</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2788951</v>
+      </c>
+      <c r="H34" s="2">
+        <v>2644</v>
+      </c>
+      <c r="I34" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="2">
-        <f t="shared" ref="D30" si="1">E30*F30</f>
+      <c r="D35" s="2">
+        <f t="shared" si="1"/>
         <v>702422952</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E35" s="2">
         <v>264</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F35" s="2">
         <v>2660693</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H35" s="2">
         <f>5129-1830</f>
         <v>3299</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I35" s="2">
         <f>3590*500</f>
         <v>1795000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="2" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="2">
-        <f>E31*F31</f>
+      <c r="D36" s="2">
+        <f t="shared" si="1"/>
         <v>762278880</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E36" s="2">
         <v>276</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F36" s="2">
         <v>2761880</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="2">
-        <f>E32*F32</f>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="1"/>
         <v>764984031</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E42" s="2">
         <v>293</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F42" s="2">
         <v>2610867</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H42" s="2">
         <v>2056</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I42" s="2">
         <v>320000</v>
       </c>
     </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D43" s="2" t="str">
+        <f>IF(E43*F43&gt;0,E43*F43,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G23:G24 G3:G14 G16:G19 G21 G27:G28">
-    <cfRule type="dataBar" priority="23">
+  <conditionalFormatting sqref="G32:G33 G23:G24 G3:G14 G16:G19">
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1089,8 +1344,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D26 D34:D39 D30:D32">
-    <cfRule type="colorScale" priority="39">
+  <conditionalFormatting sqref="G21">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{264AE123-6411-0C45-BD4F-80FC577A13EE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21 D45">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1101,8 +1370,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E26 E19 E34:E40 E30:E32">
-    <cfRule type="colorScale" priority="43">
+  <conditionalFormatting sqref="E21">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1113,8 +1382,188 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F26 F19 F34:F36 F30:F32">
-    <cfRule type="colorScale" priority="48">
+  <conditionalFormatting sqref="F21">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:D29 D26 D50">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E29 E26">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:F29 F26">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:D50">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E36 E42 E22:E24 E30 E19:E20">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F36 F42 F22:F24 F30 F19:F20">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D41">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E41">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F41">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:D50">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E42">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F42">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1140,7 +1589,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G23:G24 G3:G14 G16:G19 G21 G27:G28</xm:sqref>
+          <xm:sqref>G32:G33 G23:G24 G3:G14 G16:G19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{264AE123-6411-0C45-BD4F-80FC577A13EE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G21</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/performances.xlsx
+++ b/performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malteebner/Library/Mobile Documents/com~apple~CloudDocs/Master ETIT/10. Semester/Forschungsarbeit/Code Forschungsarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A3FD8A-2FE3-B844-8E7D-FB85F395745D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8E5BF7-8594-2946-99E3-192BE8ECD8E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{0C047C73-2AED-574F-B05A-862A7DD3D487}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16680" xr2:uid="{0C047C73-2AED-574F-B05A-862A7DD3D487}"/>
   </bookViews>
   <sheets>
     <sheet name="refinery_results" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>BatchSize</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>human - std</t>
-  </si>
-  <si>
-    <t>genetic</t>
   </si>
   <si>
     <t>calculation duration</t>
@@ -549,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358AB6D0-DA15-D244-B588-E9E7D3C401A4}">
-  <dimension ref="A2:I50"/>
+  <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -585,10 +582,10 @@
         <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="16" x14ac:dyDescent="0.2">
@@ -808,7 +805,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4">
         <f>E15*F15</f>
@@ -864,7 +861,7 @@
     </row>
     <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
@@ -889,7 +886,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ref="D20:D50" si="1">IF(E20*F20&gt;0,E20*F20,"")</f>
@@ -910,7 +907,7 @@
     </row>
     <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
@@ -932,17 +929,17 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>903952095</v>
+        <v>813981250</v>
       </c>
       <c r="E22" s="2">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="F22" s="2">
-        <v>2620151</v>
+        <v>2496875</v>
       </c>
       <c r="H22" s="2">
         <v>4111</v>
@@ -1003,10 +1000,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="1"/>
@@ -1027,22 +1024,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="1"/>
-        <v>3058520850</v>
+        <v>809758246</v>
       </c>
       <c r="E27" s="2">
-        <v>770</v>
+        <v>326</v>
       </c>
       <c r="F27" s="2">
-        <v>3972105</v>
+        <v>2483921</v>
+      </c>
+      <c r="H27" s="2">
+        <v>985</v>
+      </c>
+      <c r="I27" s="2">
+        <v>3000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="1"/>
@@ -1111,10 +1114,10 @@
     </row>
     <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="1"/>
@@ -1136,7 +1139,7 @@
     </row>
     <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="1"/>
@@ -1158,7 +1161,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="1"/>
@@ -1223,41 +1226,82 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="2" t="str">
+        <v>46</v>
+      </c>
+      <c r="D38" s="2">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1064059425</v>
+      </c>
+      <c r="E38" s="2">
+        <v>275</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3869307</v>
+      </c>
+      <c r="H38" s="2">
+        <v>5011</v>
+      </c>
+      <c r="I38" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="2" t="str">
+        <v>40</v>
+      </c>
+      <c r="D39" s="2">
         <f t="shared" si="1"/>
-        <v/>
+        <v>809521622</v>
+      </c>
+      <c r="E39" s="2">
+        <v>254</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3187093</v>
+      </c>
+      <c r="H39" s="2">
+        <v>996</v>
+      </c>
+      <c r="I39" s="2">
+        <v>3000</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="2" t="str">
+        <v>41</v>
+      </c>
+      <c r="D40" s="2">
         <f t="shared" si="1"/>
-        <v/>
+        <v>909745990</v>
+      </c>
+      <c r="E40" s="2">
+        <v>289</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3147910</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D41" s="2">
+        <v>783915168</v>
+      </c>
+      <c r="E41" s="2">
+        <v>251</v>
+      </c>
+      <c r="F41" s="2">
+        <v>3123168</v>
+      </c>
+      <c r="H41" s="2">
+        <v>582</v>
+      </c>
+      <c r="I41" s="2">
+        <v>231000</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -1287,51 +1331,9 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D44" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D45" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D46" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D47" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D48" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D49" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D50" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="G32:G33 G23:G24 G3:G14 G16:G19">
-    <cfRule type="dataBar" priority="40">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1345,7 +1347,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1358,8 +1360,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21 D45">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="D21">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1371,7 +1373,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1383,7 +1385,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1395,7 +1397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1407,7 +1409,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1419,7 +1421,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1430,8 +1432,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D29 D26 D50">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="D28:D29 D26">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1443,7 +1445,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29 E26">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1455,7 +1457,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F29 F26">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1466,8 +1468,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D50">
-    <cfRule type="colorScale" priority="99">
+  <conditionalFormatting sqref="D19:D43">
+    <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1479,7 +1481,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:E36 E42 E22:E24 E30 E19:E20">
-    <cfRule type="colorScale" priority="104">
+    <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1491,7 +1493,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F36 F42 F22:F24 F30 F19:F20">
-    <cfRule type="colorScale" priority="109">
+    <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1503,7 +1505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D41">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1515,7 +1517,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E41">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1527,7 +1529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:F41">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1538,8 +1540,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D50">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="D19:D43">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1551,7 +1553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E42">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1563,6 +1565,114 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F42">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D54">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:E48 E54">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:F48 F54">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D53">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:E53">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50:F53">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D54">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:E54">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:F54">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1612,16 +1722,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE22436E-1B01-4E4E-82EB-F6524F9BD974}">
-  <dimension ref="C4:O24"/>
+  <dimension ref="C4:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1655,10 +1765,10 @@
         <v>35</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.2">
@@ -1756,112 +1866,181 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1">
+        <v>62.59</v>
+      </c>
+      <c r="G11" s="1">
+        <v>53.33</v>
+      </c>
+      <c r="H11" s="1">
+        <v>53</v>
+      </c>
+      <c r="I11" s="1">
+        <v>67.22</v>
+      </c>
+      <c r="J11" s="1">
+        <v>72</v>
+      </c>
+      <c r="K11" s="1">
+        <v>67</v>
+      </c>
+      <c r="L11" s="1">
+        <v>63</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1">
+        <v>3543</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="G12" s="1">
+        <v>53.33</v>
+      </c>
+      <c r="H12" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>72.22</v>
+      </c>
+      <c r="J12" s="1">
+        <v>76</v>
+      </c>
+      <c r="K12" s="1">
+        <v>66</v>
+      </c>
+      <c r="L12" s="1">
+        <v>65</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1">
+        <v>1354</v>
+      </c>
+      <c r="O12" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1">
         <v>65.05</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G13" s="1">
         <v>53.333329999999997</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H13" s="1">
         <v>52.2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I13" s="1">
         <v>72.777777700000001</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J13" s="1">
         <v>78</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K13" s="1">
         <v>69</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L13" s="1">
         <v>65</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1">
+      <c r="M13" s="1"/>
+      <c r="N13" s="1">
         <v>1654</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O13" s="1">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F14" s="1">
         <v>65.040000000000006</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G14" s="1">
         <v>53.33</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H14" s="1">
         <v>52.6</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I14" s="1">
         <v>73.33</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J14" s="1">
         <v>77</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K14" s="1">
         <v>69</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L14" s="1">
         <v>65</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10">
+      <c r="M14" s="1"/>
+      <c r="N14">
         <v>2385</v>
       </c>
-      <c r="O10">
+      <c r="O14">
         <v>8192</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1872,6 +2051,13 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1881,7 +2067,12 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1891,7 +2082,12 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1901,7 +2097,12 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1911,7 +2112,12 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1921,7 +2127,10 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1931,35 +2140,84 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/performances.xlsx
+++ b/performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malteebner/Library/Mobile Documents/com~apple~CloudDocs/Master ETIT/10. Semester/Forschungsarbeit/Code Forschungsarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07274908-EAD6-F545-A66C-0540D55C50B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF9AC02-4055-9A4B-AAC7-6AF060F7D6A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="1" xr2:uid="{0C047C73-2AED-574F-B05A-862A7DD3D487}"/>
   </bookViews>
@@ -382,7 +382,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -411,9 +411,13 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,7 +737,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1447,21 +1451,41 @@
       <c r="C23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="D23" s="7">
+        <v>1042473215</v>
+      </c>
+      <c r="E23" s="7">
+        <v>365</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2856091</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1766</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4000</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="D24" s="7">
+        <v>1409331020</v>
+      </c>
+      <c r="E24" s="7">
+        <v>430</v>
+      </c>
+      <c r="F24" s="7">
+        <v>3277514</v>
+      </c>
+      <c r="G24" s="7">
+        <v>3802</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3000</v>
+      </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C25" s="7" t="s">
@@ -1487,21 +1511,41 @@
       <c r="C26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="D26" s="7">
+        <v>794785876</v>
+      </c>
+      <c r="E26" s="7">
+        <v>313</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2539252</v>
+      </c>
+      <c r="G26" s="7">
+        <v>2207</v>
+      </c>
+      <c r="H26" s="7">
+        <v>900000</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="D27" s="7">
+        <v>1439269763</v>
+      </c>
+      <c r="E27" s="7">
+        <v>431</v>
+      </c>
+      <c r="F27" s="7">
+        <v>3339373</v>
+      </c>
+      <c r="G27" s="7">
+        <v>2204</v>
+      </c>
+      <c r="H27" s="7">
+        <v>512000</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O28" s="6" t="s">
@@ -2321,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D665D7-1C7B-D740-9B8C-30A3564CB61E}">
   <dimension ref="B1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2331,6 +2375,7 @@
     <col min="3" max="3" width="4.83203125" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="34"/>
     <col min="12" max="12" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2344,7 +2389,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="K1" s="32"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
     </row>
@@ -2374,7 +2419,7 @@
       <c r="J2" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="33" t="s">
         <v>38</v>
       </c>
       <c r="L2" s="18"/>
@@ -2386,23 +2431,23 @@
       <c r="D3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="30">
         <v>-2425</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="30">
         <v>73</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="30">
         <v>8525</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="30">
         <v>0</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="30">
         <v>0</v>
       </c>
       <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="K3" s="28"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
@@ -2428,7 +2473,7 @@
         <v>-38</v>
       </c>
       <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="K4" s="29"/>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
@@ -2456,7 +2501,7 @@
       <c r="J5" s="26">
         <v>2308</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="29">
         <v>7000</v>
       </c>
       <c r="L5" s="18"/>
@@ -2486,7 +2531,7 @@
       <c r="J6" s="26">
         <v>2955</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="29">
         <v>3000</v>
       </c>
       <c r="L6" s="18"/>
@@ -2516,7 +2561,7 @@
       <c r="J7" s="26">
         <v>1765</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="29">
         <v>700</v>
       </c>
       <c r="L7" s="18"/>
@@ -2546,7 +2591,7 @@
       <c r="J8" s="26">
         <v>2081</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="29">
         <v>1800000</v>
       </c>
       <c r="L8" s="18"/>
@@ -2576,7 +2621,7 @@
       <c r="J9" s="26">
         <v>2253</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="29">
         <v>25600</v>
       </c>
       <c r="L9" s="18"/>
@@ -2608,7 +2653,7 @@
       <c r="J10" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="33" t="s">
         <v>38</v>
       </c>
       <c r="L10" s="18"/>
@@ -2638,7 +2683,7 @@
       <c r="J11" s="26">
         <v>2450</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="29">
         <v>7000</v>
       </c>
       <c r="L11" s="18"/>
@@ -2668,7 +2713,7 @@
       <c r="J12" s="26">
         <v>1881</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="29">
         <v>3000</v>
       </c>
       <c r="L12" s="18"/>
@@ -2698,7 +2743,7 @@
       <c r="J13" s="26">
         <v>1872</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="29">
         <v>700</v>
       </c>
       <c r="L13" s="18"/>
@@ -2728,7 +2773,7 @@
       <c r="J14" s="26">
         <v>2900</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="29">
         <v>1800000</v>
       </c>
       <c r="L14" s="18"/>
@@ -2758,7 +2803,7 @@
       <c r="J15" s="26">
         <v>222</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="29">
         <v>25600</v>
       </c>
       <c r="L15" s="18"/>
@@ -2790,7 +2835,7 @@
       <c r="J16" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="33" t="s">
         <v>38</v>
       </c>
       <c r="L16" s="18"/>
@@ -2802,25 +2847,25 @@
       <c r="D17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="30">
         <v>2734.69</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="30">
         <v>58.52</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="30">
         <v>10335.31</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="30">
         <v>16</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="30">
         <v>23</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="31">
         <v>2541</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="29">
         <v>4000</v>
       </c>
       <c r="L17" s="18"/>
@@ -2832,13 +2877,27 @@
       <c r="D18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="E18" s="27">
+        <v>1283.6400000000001</v>
+      </c>
+      <c r="F18" s="27">
+        <v>61.15</v>
+      </c>
+      <c r="G18" s="27">
+        <v>10636.36</v>
+      </c>
+      <c r="H18" s="27">
+        <v>16</v>
+      </c>
+      <c r="I18" s="27">
+        <v>18</v>
+      </c>
+      <c r="J18" s="26">
+        <v>5227</v>
+      </c>
+      <c r="K18" s="29">
+        <v>3000</v>
+      </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
     </row>
@@ -2848,13 +2907,27 @@
       <c r="D19" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+      <c r="E19" s="27">
+        <v>3024.68</v>
+      </c>
+      <c r="F19" s="27">
+        <v>62.6</v>
+      </c>
+      <c r="G19" s="27">
+        <v>10345.32</v>
+      </c>
+      <c r="H19" s="27">
+        <v>19</v>
+      </c>
+      <c r="I19" s="27">
+        <v>32</v>
+      </c>
+      <c r="J19" s="26">
+        <v>1778</v>
+      </c>
+      <c r="K19" s="29">
+        <v>700</v>
+      </c>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
@@ -2864,13 +2937,27 @@
       <c r="D20" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+      <c r="E20" s="27">
+        <v>6288.33</v>
+      </c>
+      <c r="F20" s="27">
+        <v>59.88</v>
+      </c>
+      <c r="G20" s="27">
+        <v>9781.67</v>
+      </c>
+      <c r="H20" s="27">
+        <v>29</v>
+      </c>
+      <c r="I20" s="27">
+        <v>42</v>
+      </c>
+      <c r="J20" s="26">
+        <v>2379</v>
+      </c>
+      <c r="K20" s="29">
+        <v>900000</v>
+      </c>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
     </row>
@@ -2880,13 +2967,27 @@
       <c r="D21" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
+      <c r="E21" s="29">
+        <v>5929.52</v>
+      </c>
+      <c r="F21" s="29">
+        <v>62.95</v>
+      </c>
+      <c r="G21" s="29">
+        <v>10240.48</v>
+      </c>
+      <c r="H21" s="29">
+        <v>34</v>
+      </c>
+      <c r="I21" s="29">
+        <v>45</v>
+      </c>
+      <c r="J21" s="26">
+        <v>2995</v>
+      </c>
+      <c r="K21" s="29">
+        <v>25600</v>
+      </c>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
     </row>
@@ -2916,7 +3017,7 @@
       <c r="J22" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="33" t="s">
         <v>38</v>
       </c>
       <c r="L22" s="18"/>
@@ -2927,13 +3028,27 @@
       <c r="D23" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+      <c r="E23" s="29">
+        <v>2582.06</v>
+      </c>
+      <c r="F23" s="29">
+        <v>65.16</v>
+      </c>
+      <c r="G23" s="29">
+        <v>9337.94</v>
+      </c>
+      <c r="H23" s="29">
+        <v>20</v>
+      </c>
+      <c r="I23" s="29">
+        <v>25</v>
+      </c>
+      <c r="J23" s="26">
+        <v>2119</v>
+      </c>
+      <c r="K23" s="29">
+        <v>4000</v>
+      </c>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
     </row>
@@ -2942,13 +3057,27 @@
       <c r="D24" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
+      <c r="E24" s="29">
+        <v>759.18</v>
+      </c>
+      <c r="F24" s="29">
+        <v>66.94</v>
+      </c>
+      <c r="G24" s="29">
+        <v>9660.82</v>
+      </c>
+      <c r="H24" s="29">
+        <v>18</v>
+      </c>
+      <c r="I24" s="29">
+        <v>14</v>
+      </c>
+      <c r="J24" s="26">
+        <v>4723</v>
+      </c>
+      <c r="K24" s="29">
+        <v>3000</v>
+      </c>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
     </row>
@@ -2958,13 +3087,27 @@
       <c r="D25" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
+      <c r="E25" s="29">
+        <v>347.96</v>
+      </c>
+      <c r="F25" s="29">
+        <v>70</v>
+      </c>
+      <c r="G25" s="29">
+        <v>9672.0400000000009</v>
+      </c>
+      <c r="H25" s="29">
+        <v>20</v>
+      </c>
+      <c r="I25" s="29">
+        <v>17</v>
+      </c>
+      <c r="J25" s="26">
+        <v>2667</v>
+      </c>
+      <c r="K25" s="29">
+        <v>700</v>
+      </c>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
     </row>
@@ -2974,13 +3117,27 @@
       <c r="D26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
+      <c r="E26" s="27">
+        <v>4869.4799999999996</v>
+      </c>
+      <c r="F26" s="27">
+        <v>60.96</v>
+      </c>
+      <c r="G26" s="27">
+        <v>9700.52</v>
+      </c>
+      <c r="H26" s="27">
+        <v>26</v>
+      </c>
+      <c r="I26" s="27">
+        <v>32</v>
+      </c>
+      <c r="J26" s="26">
+        <v>2111</v>
+      </c>
+      <c r="K26" s="29">
+        <v>900000</v>
+      </c>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
     </row>
@@ -2989,13 +3146,27 @@
       <c r="D27" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
+      <c r="E27" s="29">
+        <v>255.88</v>
+      </c>
+      <c r="F27" s="29">
+        <v>64.86</v>
+      </c>
+      <c r="G27" s="29">
+        <v>9874.1200000000008</v>
+      </c>
+      <c r="H27" s="29">
+        <v>9</v>
+      </c>
+      <c r="I27" s="29">
+        <v>15</v>
+      </c>
+      <c r="J27" s="26">
+        <v>1217</v>
+      </c>
+      <c r="K27" s="29">
+        <v>256000</v>
+      </c>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
@@ -3031,7 +3202,7 @@
       <c r="J29" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="33" t="s">
         <v>38</v>
       </c>
       <c r="L29" s="18"/>
@@ -3043,13 +3214,27 @@
       <c r="D30" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
+      <c r="E30" s="27">
+        <v>1097.22</v>
+      </c>
+      <c r="F30" s="27">
+        <v>65.59</v>
+      </c>
+      <c r="G30" s="27">
+        <v>9712.7800000000007</v>
+      </c>
+      <c r="H30" s="27">
+        <v>15</v>
+      </c>
+      <c r="I30" s="27">
+        <v>19</v>
+      </c>
+      <c r="J30" s="26">
+        <v>986</v>
+      </c>
+      <c r="K30" s="29">
+        <v>4000</v>
+      </c>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
     </row>
@@ -3059,13 +3244,27 @@
       <c r="D31" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
+      <c r="E31" s="27">
+        <v>163.29</v>
+      </c>
+      <c r="F31" s="27">
+        <v>67.03</v>
+      </c>
+      <c r="G31" s="27">
+        <v>9691.7099999999991</v>
+      </c>
+      <c r="H31" s="27">
+        <v>18</v>
+      </c>
+      <c r="I31" s="27">
+        <v>9</v>
+      </c>
+      <c r="J31" s="26">
+        <v>3034</v>
+      </c>
+      <c r="K31" s="29">
+        <v>3000</v>
+      </c>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
     </row>
@@ -3075,13 +3274,27 @@
       <c r="D32" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
+      <c r="E32" s="27">
+        <v>2812.33</v>
+      </c>
+      <c r="F32" s="27">
+        <v>64.88</v>
+      </c>
+      <c r="G32" s="27">
+        <v>9517.67</v>
+      </c>
+      <c r="H32" s="27">
+        <v>19</v>
+      </c>
+      <c r="I32" s="27">
+        <v>28</v>
+      </c>
+      <c r="J32" s="26">
+        <v>1789</v>
+      </c>
+      <c r="K32" s="29">
+        <v>700</v>
+      </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="17"/>
@@ -3089,13 +3302,27 @@
       <c r="D33" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
+      <c r="E33" s="27">
+        <v>4184.3599999999997</v>
+      </c>
+      <c r="F33" s="27">
+        <v>68.41</v>
+      </c>
+      <c r="G33" s="27">
+        <v>9325.64</v>
+      </c>
+      <c r="H33" s="27">
+        <v>29</v>
+      </c>
+      <c r="I33" s="27">
+        <v>38</v>
+      </c>
+      <c r="J33" s="26">
+        <v>1618</v>
+      </c>
+      <c r="K33" s="29">
+        <v>900000</v>
+      </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="17"/>
@@ -3103,13 +3330,13 @@
       <c r="D34" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
       <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
+      <c r="K34" s="29"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="17" t="s">
@@ -3137,7 +3364,7 @@
       <c r="J35" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K35" s="23" t="s">
+      <c r="K35" s="33" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3146,26 +3373,54 @@
       <c r="D36" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
+      <c r="E36" s="29">
+        <v>2739.48</v>
+      </c>
+      <c r="F36" s="29">
+        <v>65.31</v>
+      </c>
+      <c r="G36" s="29">
+        <v>9790.52</v>
+      </c>
+      <c r="H36" s="29">
+        <v>18</v>
+      </c>
+      <c r="I36" s="29">
+        <v>32</v>
+      </c>
+      <c r="J36" s="26">
+        <v>1111</v>
+      </c>
+      <c r="K36" s="29">
+        <v>4000</v>
+      </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C37" s="19"/>
       <c r="D37" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
+      <c r="E37" s="29">
+        <v>2764.36</v>
+      </c>
+      <c r="F37" s="29">
+        <v>64.34</v>
+      </c>
+      <c r="G37" s="29">
+        <v>9845.64</v>
+      </c>
+      <c r="H37" s="29">
+        <v>19</v>
+      </c>
+      <c r="I37" s="29">
+        <v>29</v>
+      </c>
+      <c r="J37" s="26">
+        <v>1362</v>
+      </c>
+      <c r="K37" s="29">
+        <v>2500</v>
+      </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="17"/>
@@ -3173,13 +3428,13 @@
       <c r="D38" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
+      <c r="K38" s="29"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="17"/>
@@ -3193,20 +3448,20 @@
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
+      <c r="K39" s="29"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C40" s="19"/>
       <c r="D40" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
       <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
+      <c r="K40" s="29"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="17" t="s">
@@ -3234,7 +3489,7 @@
       <c r="J41" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="K41" s="33" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3250,7 +3505,7 @@
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
+      <c r="K42" s="29"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="17"/>
@@ -3264,7 +3519,7 @@
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
+      <c r="K43" s="29"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="17"/>
@@ -3278,7 +3533,7 @@
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
+      <c r="K44" s="29"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="17"/>
@@ -3292,7 +3547,7 @@
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
       <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
+      <c r="K45" s="29"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="17"/>
@@ -3300,13 +3555,13 @@
       <c r="D46" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
       <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
+      <c r="K46" s="29"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="17" t="s">
@@ -3334,7 +3589,7 @@
       <c r="J47" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K47" s="23" t="s">
+      <c r="K47" s="33" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3343,26 +3598,26 @@
       <c r="D48" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
       <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
+      <c r="K48" s="29"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C49" s="19"/>
       <c r="D49" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
       <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
+      <c r="K49" s="29"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="17"/>
@@ -3370,13 +3625,13 @@
       <c r="D50" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
       <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
+      <c r="K50" s="29"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="17"/>
@@ -3390,20 +3645,20 @@
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
       <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
+      <c r="K51" s="29"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C52" s="19"/>
       <c r="D52" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
       <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
+      <c r="K52" s="29"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" s="17" t="s">
@@ -3431,7 +3686,7 @@
       <c r="J59" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K59" s="23" t="s">
+      <c r="K59" s="33" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="18"/>
@@ -3442,25 +3697,25 @@
       <c r="D60" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E60" s="29">
+      <c r="E60" s="30">
         <v>2468.96</v>
       </c>
-      <c r="F60" s="29">
+      <c r="F60" s="30">
         <v>61.58</v>
       </c>
-      <c r="G60" s="29">
+      <c r="G60" s="30">
         <v>12251.04</v>
       </c>
-      <c r="H60" s="29">
+      <c r="H60" s="30">
         <v>32</v>
       </c>
-      <c r="I60" s="29">
+      <c r="I60" s="30">
         <v>30</v>
       </c>
-      <c r="J60" s="30">
+      <c r="J60" s="31">
         <v>6849</v>
       </c>
-      <c r="K60" s="30">
+      <c r="K60" s="29">
         <v>7000</v>
       </c>
       <c r="L60" s="18"/>
@@ -3489,7 +3744,7 @@
       <c r="J61" s="26">
         <v>3082</v>
       </c>
-      <c r="K61" s="26">
+      <c r="K61" s="29">
         <v>5000</v>
       </c>
       <c r="L61" s="18" t="s">
@@ -3520,7 +3775,7 @@
       <c r="J62" s="26">
         <v>5215</v>
       </c>
-      <c r="K62" s="26">
+      <c r="K62" s="29">
         <v>3000</v>
       </c>
       <c r="L62" s="18"/>
@@ -3549,7 +3804,7 @@
       <c r="J63" s="26">
         <v>5212</v>
       </c>
-      <c r="K63" s="26">
+      <c r="K63" s="29">
         <v>3000</v>
       </c>
       <c r="L63" s="18" t="s">
@@ -3580,7 +3835,7 @@
       <c r="J64" s="26">
         <v>1383</v>
       </c>
-      <c r="K64" s="26">
+      <c r="K64" s="29">
         <v>700</v>
       </c>
       <c r="L64" s="18"/>
@@ -3609,7 +3864,7 @@
       <c r="J65" s="26">
         <v>1783</v>
       </c>
-      <c r="K65" s="26">
+      <c r="K65" s="29">
         <v>700</v>
       </c>
       <c r="L65" s="18" t="s">
@@ -3640,7 +3895,7 @@
       <c r="J66" s="26">
         <v>3955</v>
       </c>
-      <c r="K66" s="26">
+      <c r="K66" s="29">
         <v>1800000</v>
       </c>
       <c r="L66" s="18"/>
@@ -3651,13 +3906,13 @@
       <c r="D67" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
       <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
+      <c r="K67" s="29"/>
       <c r="L67" s="18"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
@@ -3686,7 +3941,7 @@
       <c r="J68" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K68" s="23" t="s">
+      <c r="K68" s="33" t="s">
         <v>38</v>
       </c>
       <c r="L68" s="18"/>
@@ -3696,13 +3951,13 @@
       <c r="D69" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
       <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
+      <c r="K69" s="29"/>
       <c r="L69" s="18"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
@@ -3710,13 +3965,13 @@
       <c r="D70" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
       <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
+      <c r="K70" s="29"/>
       <c r="L70" s="18"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
@@ -3725,13 +3980,13 @@
       <c r="D71" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
       <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
+      <c r="K71" s="29"/>
       <c r="L71" s="18"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
@@ -3746,7 +4001,7 @@
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
       <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
+      <c r="K72" s="29"/>
       <c r="L72" s="18"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
@@ -3754,13 +4009,13 @@
       <c r="D73" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
       <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
+      <c r="K73" s="29"/>
       <c r="L73" s="18"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
@@ -3789,7 +4044,7 @@
       <c r="J74" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K74" s="23" t="s">
+      <c r="K74" s="33" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3805,7 +4060,7 @@
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
       <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
+      <c r="K75" s="29"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="17"/>
@@ -3819,7 +4074,7 @@
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
       <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
+      <c r="K76" s="29"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="17"/>
@@ -3833,7 +4088,7 @@
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
       <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
+      <c r="K77" s="29"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="17"/>
@@ -3847,7 +4102,7 @@
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
       <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
+      <c r="K78" s="29"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="17"/>
@@ -3855,13 +4110,13 @@
       <c r="D79" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
       <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
+      <c r="K79" s="29"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="17" t="s">
@@ -3889,7 +4144,7 @@
       <c r="J80" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K80" s="23" t="s">
+      <c r="K80" s="33" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3898,26 +4153,26 @@
       <c r="D81" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
       <c r="J81" s="26"/>
-      <c r="K81" s="26"/>
+      <c r="K81" s="29"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C82" s="19"/>
       <c r="D82" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
       <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
+      <c r="K82" s="29"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="17"/>
@@ -3925,13 +4180,13 @@
       <c r="D83" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
       <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
+      <c r="K83" s="29"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="17"/>
@@ -3945,20 +4200,20 @@
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
       <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
+      <c r="K84" s="29"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C85" s="19"/>
       <c r="D85" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
       <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
+      <c r="K85" s="29"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E29:E40">

--- a/performances.xlsx
+++ b/performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malteebner/Library/Mobile Documents/com~apple~CloudDocs/Master ETIT/10. Semester/Forschungsarbeit/Code Forschungsarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF9AC02-4055-9A4B-AAC7-6AF060F7D6A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D87A94-64F1-544F-B953-503A7D789ECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="1" xr2:uid="{0C047C73-2AED-574F-B05A-862A7DD3D487}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{0C047C73-2AED-574F-B05A-862A7DD3D487}"/>
   </bookViews>
   <sheets>
     <sheet name="refinery_results" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="74">
   <si>
     <t>BatchSize</t>
   </si>
@@ -737,7 +737,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2365,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D665D7-1C7B-D740-9B8C-30A3564CB61E}">
   <dimension ref="B1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3330,13 +3330,27 @@
       <c r="D34" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="29"/>
+      <c r="E34" s="29">
+        <v>3734.99</v>
+      </c>
+      <c r="F34" s="29">
+        <v>63.76</v>
+      </c>
+      <c r="G34" s="29">
+        <v>9655.01</v>
+      </c>
+      <c r="H34" s="29">
+        <v>22</v>
+      </c>
+      <c r="I34" s="29">
+        <v>33</v>
+      </c>
+      <c r="J34" s="26">
+        <v>2628</v>
+      </c>
+      <c r="K34" s="29">
+        <v>25600</v>
+      </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="17" t="s">
@@ -3428,13 +3442,27 @@
       <c r="D38" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="29"/>
+      <c r="E38" s="29">
+        <v>2735.36</v>
+      </c>
+      <c r="F38" s="29">
+        <v>64.64</v>
+      </c>
+      <c r="G38" s="29">
+        <v>9564.64</v>
+      </c>
+      <c r="H38" s="29">
+        <v>20</v>
+      </c>
+      <c r="I38" s="29">
+        <v>26</v>
+      </c>
+      <c r="J38" s="26">
+        <v>1515</v>
+      </c>
+      <c r="K38" s="29">
+        <v>700</v>
+      </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="17"/>
@@ -3442,26 +3470,54 @@
       <c r="D39" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="29"/>
+      <c r="E39" s="27">
+        <v>4047.22</v>
+      </c>
+      <c r="F39" s="27">
+        <v>66.36</v>
+      </c>
+      <c r="G39" s="27">
+        <v>9402.7800000000007</v>
+      </c>
+      <c r="H39" s="27">
+        <v>25</v>
+      </c>
+      <c r="I39" s="27">
+        <v>37</v>
+      </c>
+      <c r="J39" s="26">
+        <v>2310</v>
+      </c>
+      <c r="K39" s="29">
+        <v>900000</v>
+      </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C40" s="19"/>
       <c r="D40" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="29"/>
+      <c r="E40" s="29">
+        <v>463.56</v>
+      </c>
+      <c r="F40" s="29">
+        <v>61.18</v>
+      </c>
+      <c r="G40" s="29">
+        <v>10286.44</v>
+      </c>
+      <c r="H40" s="29">
+        <v>13</v>
+      </c>
+      <c r="I40" s="29">
+        <v>8</v>
+      </c>
+      <c r="J40" s="26">
+        <v>1844</v>
+      </c>
+      <c r="K40" s="29">
+        <v>512000</v>
+      </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="17" t="s">
@@ -3499,13 +3555,27 @@
       <c r="D42" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="29"/>
+      <c r="E42" s="27">
+        <v>2725.61</v>
+      </c>
+      <c r="F42" s="27">
+        <v>61.41</v>
+      </c>
+      <c r="G42" s="27">
+        <v>10694.39</v>
+      </c>
+      <c r="H42" s="27">
+        <v>24</v>
+      </c>
+      <c r="I42" s="27">
+        <v>25</v>
+      </c>
+      <c r="J42" s="26">
+        <v>2160</v>
+      </c>
+      <c r="K42" s="29">
+        <v>4000</v>
+      </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="17"/>
@@ -3513,13 +3583,27 @@
       <c r="D43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="29"/>
+      <c r="E43" s="27">
+        <v>1773.24</v>
+      </c>
+      <c r="F43" s="27">
+        <v>57.94</v>
+      </c>
+      <c r="G43" s="27">
+        <v>10692.76</v>
+      </c>
+      <c r="H43" s="27">
+        <v>13</v>
+      </c>
+      <c r="I43" s="27">
+        <v>19</v>
+      </c>
+      <c r="J43" s="26">
+        <v>3173</v>
+      </c>
+      <c r="K43" s="29">
+        <v>2500</v>
+      </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="17"/>
@@ -3527,13 +3611,27 @@
       <c r="D44" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="29"/>
+      <c r="E44" s="27">
+        <v>2500.79</v>
+      </c>
+      <c r="F44" s="27">
+        <v>58.99</v>
+      </c>
+      <c r="G44" s="27">
+        <v>11269.21</v>
+      </c>
+      <c r="H44" s="27">
+        <v>19</v>
+      </c>
+      <c r="I44" s="27">
+        <v>28</v>
+      </c>
+      <c r="J44" s="26">
+        <v>1070</v>
+      </c>
+      <c r="K44" s="29">
+        <v>700</v>
+      </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="17"/>
@@ -3541,13 +3639,27 @@
       <c r="D45" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="29"/>
+      <c r="E45" s="27">
+        <v>6220.63</v>
+      </c>
+      <c r="F45" s="27">
+        <v>59.44</v>
+      </c>
+      <c r="G45" s="27">
+        <v>10229.370000000001</v>
+      </c>
+      <c r="H45" s="27">
+        <v>32</v>
+      </c>
+      <c r="I45" s="27">
+        <v>43</v>
+      </c>
+      <c r="J45" s="26">
+        <v>3062</v>
+      </c>
+      <c r="K45" s="29">
+        <v>900000</v>
+      </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="17"/>
@@ -3555,13 +3667,27 @@
       <c r="D46" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="29"/>
+      <c r="E46" s="29">
+        <v>5674</v>
+      </c>
+      <c r="F46" s="29">
+        <v>61.54</v>
+      </c>
+      <c r="G46" s="29">
+        <v>10396</v>
+      </c>
+      <c r="H46" s="29">
+        <v>32</v>
+      </c>
+      <c r="I46" s="29">
+        <v>44</v>
+      </c>
+      <c r="J46" s="26">
+        <v>2530</v>
+      </c>
+      <c r="K46" s="29">
+        <v>25600</v>
+      </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="17" t="s">
@@ -3598,26 +3724,54 @@
       <c r="D48" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="29"/>
+      <c r="E48" s="29">
+        <v>3969.18</v>
+      </c>
+      <c r="F48" s="29">
+        <v>69.53</v>
+      </c>
+      <c r="G48" s="29">
+        <v>9400.82</v>
+      </c>
+      <c r="H48" s="29">
+        <v>30</v>
+      </c>
+      <c r="I48" s="29">
+        <v>38</v>
+      </c>
+      <c r="J48" s="26">
+        <v>2195</v>
+      </c>
+      <c r="K48" s="29">
+        <v>4000</v>
+      </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C49" s="19"/>
       <c r="D49" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="29"/>
+      <c r="E49" s="29">
+        <v>2472.4899999999998</v>
+      </c>
+      <c r="F49" s="29">
+        <v>71.94</v>
+      </c>
+      <c r="G49" s="29">
+        <v>9577.51</v>
+      </c>
+      <c r="H49" s="29">
+        <v>26</v>
+      </c>
+      <c r="I49" s="29">
+        <v>35</v>
+      </c>
+      <c r="J49" s="26">
+        <v>2193</v>
+      </c>
+      <c r="K49" s="29">
+        <v>2500</v>
+      </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="17"/>
@@ -3625,13 +3779,27 @@
       <c r="D50" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="29"/>
+      <c r="E50" s="29">
+        <v>3674.63</v>
+      </c>
+      <c r="F50" s="29">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="G50" s="29">
+        <v>9395.3700000000008</v>
+      </c>
+      <c r="H50" s="29">
+        <v>28</v>
+      </c>
+      <c r="I50" s="29">
+        <v>38</v>
+      </c>
+      <c r="J50" s="26">
+        <v>1087</v>
+      </c>
+      <c r="K50" s="29">
+        <v>700</v>
+      </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="17"/>
@@ -3639,26 +3807,54 @@
       <c r="D51" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="29"/>
+      <c r="E51" s="27">
+        <v>4689.71</v>
+      </c>
+      <c r="F51" s="27">
+        <v>68.5</v>
+      </c>
+      <c r="G51" s="27">
+        <v>9220.2900000000009</v>
+      </c>
+      <c r="H51" s="27">
+        <v>30</v>
+      </c>
+      <c r="I51" s="27">
+        <v>41</v>
+      </c>
+      <c r="J51" s="26">
+        <v>2272</v>
+      </c>
+      <c r="K51" s="29">
+        <v>900000</v>
+      </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C52" s="19"/>
       <c r="D52" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="29"/>
+      <c r="E52" s="29">
+        <v>2539.19</v>
+      </c>
+      <c r="F52" s="29">
+        <v>65.23</v>
+      </c>
+      <c r="G52" s="29">
+        <v>10520.81</v>
+      </c>
+      <c r="H52" s="29">
+        <v>22</v>
+      </c>
+      <c r="I52" s="29">
+        <v>33</v>
+      </c>
+      <c r="J52" s="26">
+        <v>1120</v>
+      </c>
+      <c r="K52" s="29">
+        <v>256000</v>
+      </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" s="17" t="s">
@@ -4534,10 +4730,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE22436E-1B01-4E4E-82EB-F6524F9BD974}">
-  <dimension ref="C4:O48"/>
+  <dimension ref="C4:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5208,15 +5404,33 @@
       <c r="E24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
+      <c r="F24" s="14">
+        <v>63.35</v>
+      </c>
+      <c r="G24" s="14">
+        <v>46.75</v>
+      </c>
+      <c r="H24" s="14">
+        <v>59.38</v>
+      </c>
+      <c r="I24" s="14">
+        <v>70</v>
+      </c>
+      <c r="J24" s="14">
+        <v>73</v>
+      </c>
+      <c r="K24" s="14">
+        <v>68</v>
+      </c>
+      <c r="L24" s="14">
+        <v>63</v>
+      </c>
+      <c r="M24" s="13">
+        <v>2726</v>
+      </c>
+      <c r="N24" s="13">
+        <v>3000</v>
+      </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="9"/>
@@ -5224,15 +5438,33 @@
       <c r="E25" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
+      <c r="F25" s="14">
+        <v>62.02</v>
+      </c>
+      <c r="G25" s="14">
+        <v>46.46</v>
+      </c>
+      <c r="H25" s="14">
+        <v>59.35</v>
+      </c>
+      <c r="I25" s="14">
+        <v>68.33</v>
+      </c>
+      <c r="J25" s="14">
+        <v>75</v>
+      </c>
+      <c r="K25" s="14">
+        <v>61</v>
+      </c>
+      <c r="L25" s="14">
+        <v>62</v>
+      </c>
+      <c r="M25" s="13">
+        <v>3007</v>
+      </c>
+      <c r="N25" s="13">
+        <v>2500</v>
+      </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="9"/>
@@ -5240,15 +5472,33 @@
       <c r="E26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
+      <c r="F26" s="14">
+        <v>64.48</v>
+      </c>
+      <c r="G26" s="14">
+        <v>42.94</v>
+      </c>
+      <c r="H26" s="14">
+        <v>63.6</v>
+      </c>
+      <c r="I26" s="14">
+        <v>73.33</v>
+      </c>
+      <c r="J26" s="14">
+        <v>77</v>
+      </c>
+      <c r="K26" s="14">
+        <v>67</v>
+      </c>
+      <c r="L26" s="14">
+        <v>63</v>
+      </c>
+      <c r="M26" s="13">
+        <v>1982</v>
+      </c>
+      <c r="N26" s="13">
+        <v>700</v>
+      </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="9"/>
@@ -5593,253 +5843,237 @@
       <c r="E41" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
+      <c r="F41" s="14">
+        <v>65.2</v>
+      </c>
+      <c r="G41" s="14">
+        <v>47.45</v>
+      </c>
+      <c r="H41" s="14">
+        <v>58.97</v>
+      </c>
+      <c r="I41" s="14">
+        <v>72.78</v>
+      </c>
+      <c r="J41" s="14">
+        <v>78</v>
+      </c>
+      <c r="K41" s="14">
+        <v>69</v>
+      </c>
+      <c r="L41" s="14">
+        <v>65</v>
+      </c>
+      <c r="M41" s="13">
+        <v>2628</v>
+      </c>
+      <c r="N41" s="13">
+        <v>3200</v>
+      </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="14">
-        <v>65.2</v>
-      </c>
-      <c r="G42" s="14">
-        <v>47.45</v>
-      </c>
-      <c r="H42" s="14">
-        <v>58.97</v>
-      </c>
-      <c r="I42" s="14">
-        <v>72.78</v>
-      </c>
-      <c r="J42" s="14">
-        <v>78</v>
-      </c>
-      <c r="K42" s="14">
-        <v>69</v>
-      </c>
-      <c r="L42" s="14">
-        <v>65</v>
-      </c>
-      <c r="M42" s="13">
-        <v>2628</v>
-      </c>
-      <c r="N42" s="13">
-        <v>3200</v>
+      <c r="E42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N42" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C43" s="9"/>
+      <c r="C43" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M43" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N43" s="16" t="s">
-        <v>38</v>
+      <c r="E43" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="14">
+        <v>60.94</v>
+      </c>
+      <c r="G43" s="14">
+        <v>48.19</v>
+      </c>
+      <c r="H43" s="14">
+        <v>58.13</v>
+      </c>
+      <c r="I43" s="14">
+        <v>63.33</v>
+      </c>
+      <c r="J43" s="14">
+        <v>71</v>
+      </c>
+      <c r="K43" s="14">
+        <v>64</v>
+      </c>
+      <c r="L43" s="14">
+        <v>61</v>
+      </c>
+      <c r="M43" s="13">
+        <v>2984</v>
+      </c>
+      <c r="N43" s="13">
+        <v>5000</v>
       </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C44" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F44" s="14">
-        <v>60.94</v>
+        <v>56.49</v>
       </c>
       <c r="G44" s="14">
-        <v>48.19</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="H44" s="14">
-        <v>58.13</v>
+        <v>54.85</v>
       </c>
       <c r="I44" s="14">
-        <v>63.33</v>
+        <v>60.56</v>
       </c>
       <c r="J44" s="14">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K44" s="14">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L44" s="14">
         <v>61</v>
       </c>
       <c r="M44" s="13">
-        <v>2984</v>
+        <v>3703</v>
       </c>
       <c r="N44" s="13">
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F45" s="14">
-        <v>56.49</v>
+        <v>57.48</v>
       </c>
       <c r="G45" s="14">
-        <v>35.520000000000003</v>
+        <v>29.44</v>
       </c>
       <c r="H45" s="14">
-        <v>54.85</v>
+        <v>55.19</v>
       </c>
       <c r="I45" s="14">
-        <v>60.56</v>
+        <v>67.22</v>
       </c>
       <c r="J45" s="14">
         <v>70</v>
       </c>
       <c r="K45" s="14">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L45" s="14">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M45" s="13">
-        <v>3703</v>
+        <v>1690</v>
       </c>
       <c r="N45" s="13">
-        <v>3000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F46" s="14">
-        <v>57.48</v>
+        <v>64.540000000000006</v>
       </c>
       <c r="G46" s="14">
-        <v>29.44</v>
+        <v>38.99</v>
       </c>
       <c r="H46" s="14">
-        <v>55.19</v>
+        <v>65.14</v>
       </c>
       <c r="I46" s="14">
-        <v>67.22</v>
+        <v>71.11</v>
       </c>
       <c r="J46" s="14">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K46" s="14">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="L46" s="14">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M46" s="13">
-        <v>1690</v>
+        <v>3133</v>
       </c>
       <c r="N46" s="13">
-        <v>700</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="11" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F47" s="14">
-        <v>64.540000000000006</v>
+        <v>63.6</v>
       </c>
       <c r="G47" s="14">
-        <v>38.99</v>
+        <v>39.06</v>
       </c>
       <c r="H47" s="14">
-        <v>65.14</v>
+        <v>63.42</v>
       </c>
       <c r="I47" s="14">
         <v>71.11</v>
       </c>
       <c r="J47" s="14">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K47" s="14">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L47" s="14">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M47" s="13">
-        <v>3133</v>
+        <v>1093</v>
       </c>
       <c r="N47" s="13">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="14">
-        <v>63.6</v>
-      </c>
-      <c r="G48" s="14">
-        <v>39.06</v>
-      </c>
-      <c r="H48" s="14">
-        <v>63.42</v>
-      </c>
-      <c r="I48" s="14">
-        <v>71.11</v>
-      </c>
-      <c r="J48" s="14">
-        <v>77</v>
-      </c>
-      <c r="K48" s="14">
-        <v>68</v>
-      </c>
-      <c r="L48" s="14">
-        <v>63</v>
-      </c>
-      <c r="M48" s="13">
-        <v>1093</v>
-      </c>
-      <c r="N48" s="13">
         <v>12800</v>
       </c>
     </row>
@@ -6012,7 +6246,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N35 N49:N1048576">
+  <conditionalFormatting sqref="N48:N1048576 N1:N35">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
@@ -6026,7 +6260,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M35 M49:M1048576">
+  <conditionalFormatting sqref="M48:M1048576 M1:M35">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
@@ -6054,176 +6288,92 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F48">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36:G48">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36:H48">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I48">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36:J48">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36:K48">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L36:L48">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F48">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36:G48">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36:H48">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I48">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36:J48">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36:K48">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L36:L48">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N36:N48">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="F36:F47">
+    <cfRule type="colorScale" priority="253">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G47">
+    <cfRule type="colorScale" priority="255">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H47">
+    <cfRule type="colorScale" priority="257">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I47">
+    <cfRule type="colorScale" priority="259">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:J47">
+    <cfRule type="colorScale" priority="261">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:K47">
+    <cfRule type="colorScale" priority="263">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L36:L47">
+    <cfRule type="colorScale" priority="265">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N36:N47">
+    <cfRule type="dataBar" priority="281">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6236,8 +6386,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M36:M48">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="M36:M47">
+    <cfRule type="dataBar" priority="283">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6265,7 +6415,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N1:N35 N49:N1048576</xm:sqref>
+          <xm:sqref>N48:N1048576 N1:N35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9DE54942-91D0-CB47-A352-3755C31DF088}">
@@ -6278,7 +6428,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M1:M35 M49:M1048576</xm:sqref>
+          <xm:sqref>M48:M1048576 M1:M35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6B430648-30FD-2F43-B0FB-67B5808111BF}">
@@ -6304,7 +6454,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N36:N48</xm:sqref>
+          <xm:sqref>N36:N47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B05690F4-AAB4-874C-B581-AC91D545CC71}">
@@ -6317,7 +6467,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M36:M48</xm:sqref>
+          <xm:sqref>M36:M47</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/performances.xlsx
+++ b/performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malteebner/Library/Mobile Documents/com~apple~CloudDocs/Master ETIT/10. Semester/Forschungsarbeit/Code Forschungsarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D05686-987D-4B48-8BA6-B5FF0825D469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D8471D-AD3E-DD44-BDBC-23ED8E4B112C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{0C047C73-2AED-574F-B05A-862A7DD3D487}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{0C047C73-2AED-574F-B05A-862A7DD3D487}"/>
   </bookViews>
   <sheets>
     <sheet name="refinery_results" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="TopSim_Results" sheetId="4" r:id="rId3"/>
     <sheet name="TopSim_reduced" sheetId="6" r:id="rId4"/>
     <sheet name="MIS_results" sheetId="2" r:id="rId5"/>
-    <sheet name="actorCritic_refinery_duration" sheetId="1" r:id="rId6"/>
+    <sheet name="MIS_reduced" sheetId="7" r:id="rId6"/>
+    <sheet name="actorCritic_refinery_duration" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="95">
   <si>
     <t>BatchSize</t>
   </si>
@@ -131,9 +132,6 @@
     <t>Quality</t>
   </si>
   <si>
-    <t>User Acceptance</t>
-  </si>
-  <si>
     <t>Morale</t>
   </si>
   <si>
@@ -149,9 +147,6 @@
     <t>human - std</t>
   </si>
   <si>
-    <t>calculation duration</t>
-  </si>
-  <si>
     <t>noSamples</t>
   </si>
   <si>
@@ -300,6 +295,33 @@
   </si>
   <si>
     <t>probabilistic with compression and VAE</t>
+  </si>
+  <si>
+    <t>Model: MIS</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Sec.</t>
+  </si>
+  <si>
+    <t>Mor.</t>
+  </si>
+  <si>
+    <t>Over.</t>
+  </si>
+  <si>
+    <t>calc.</t>
+  </si>
+  <si>
+    <t>Bayes_hyperopt</t>
+  </si>
+  <si>
+    <t>Bayes_emukit</t>
+  </si>
+  <si>
+    <t>Bayes_gPyOpt</t>
   </si>
 </sst>
 </file>
@@ -363,7 +385,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -465,13 +487,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -519,6 +554,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -532,14 +568,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,153 +584,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2A5B7532-101E-0048-9294-1F4BBB5EE65C}"/>
     <cellStyle name="Per cent 2" xfId="2" xr:uid="{6D68009B-0FD1-C246-B7DB-7668D6D40F99}"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1130,22 +1046,22 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1" s="40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>45</v>
-      </c>
       <c r="G1" s="41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>24</v>
@@ -1165,7 +1081,7 @@
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K2" s="4">
         <v>1</v>
@@ -1186,7 +1102,7 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="15">
         <v>930764848</v>
@@ -1218,7 +1134,7 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="15">
         <v>1790662190.4545455</v>
@@ -1250,7 +1166,7 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="7">
         <f>IF(D5*E5&gt;0,D5*E5,"")</f>
@@ -1283,7 +1199,7 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" ref="C6:C10" si="0">IF(D6*E6&gt;0,D6*E6,"")</f>
@@ -1320,7 +1236,7 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
@@ -1357,7 +1273,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
@@ -1394,7 +1310,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
@@ -1468,7 +1384,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K11" s="4">
         <v>10</v>
@@ -1489,7 +1405,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="7">
         <f>IF(D12*E12&gt;0,D12*E12,"")</f>
@@ -1526,7 +1442,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="7">
         <f>IF(D13*E13&gt;0,D13*E13,"")</f>
@@ -1550,7 +1466,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <f>IF(D14*E14&gt;0,D14*E14,"")</f>
@@ -1569,7 +1485,7 @@
         <v>700</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M14" s="5">
         <f>N14*O14</f>
@@ -1586,7 +1502,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7">
         <f>IF(D15*E15&gt;0,D15*E15,"")</f>
@@ -1658,12 +1574,12 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="7">
         <v>866710000</v>
@@ -1683,7 +1599,7 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="7">
         <v>1310106050</v>
@@ -1703,7 +1619,7 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
         <v>888042232</v>
@@ -1723,7 +1639,7 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="7">
         <v>718297620</v>
@@ -1763,12 +1679,12 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="7">
         <v>1042473215</v>
@@ -1788,7 +1704,7 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="7">
         <v>1409331020</v>
@@ -1808,7 +1724,7 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>1119161197</v>
@@ -1828,7 +1744,7 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="7">
         <v>794785876</v>
@@ -1866,30 +1782,30 @@
         <v>512000</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="R28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="S28" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L29" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O29" s="7">
         <f>IF(P29*Q29&gt;0,P29*Q29,"")</f>
@@ -1910,7 +1826,7 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="N30" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O30" s="7">
         <f>IF(P30*Q30&gt;0,P30*Q30,"")</f>
@@ -1931,7 +1847,7 @@
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="N31" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O31" s="7">
         <f>IF(P31*Q31&gt;0,P31*Q31,"")</f>
@@ -1952,7 +1868,7 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="N32" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O32" s="7">
         <f>IF(P32*Q32&gt;0,P32*Q32,"")</f>
@@ -1996,30 +1912,30 @@
     </row>
     <row r="34" spans="12:19" x14ac:dyDescent="0.2">
       <c r="N34" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="R34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="S34" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L35" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O35" s="7">
         <f>IF(P35*Q35&gt;0,P35*Q35,"")</f>
@@ -2040,7 +1956,7 @@
     </row>
     <row r="36" spans="12:19" x14ac:dyDescent="0.2">
       <c r="N36" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O36" s="7">
         <f>IF(P36*Q36&gt;0,P36*Q36,"")</f>
@@ -2061,7 +1977,7 @@
     </row>
     <row r="37" spans="12:19" x14ac:dyDescent="0.2">
       <c r="N37" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O37" s="7">
         <f>IF(P37*Q37&gt;0,P37*Q37,"")</f>
@@ -2082,7 +1998,7 @@
     </row>
     <row r="38" spans="12:19" x14ac:dyDescent="0.2">
       <c r="N38" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O38" s="7">
         <v>783915168</v>
@@ -2719,7 +2635,7 @@
   <dimension ref="C1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C1" sqref="C1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2729,51 +2645,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C1" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
+      <c r="C1" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>81</v>
-      </c>
       <c r="E2" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>82</v>
-      </c>
       <c r="G3" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -2782,7 +2698,7 @@
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="18">
         <f>refinery_results!C4</f>
@@ -2794,7 +2710,7 @@
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="18">
         <f>refinery_results!C3</f>
@@ -2806,7 +2722,7 @@
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="18">
         <f>refinery_results!C5</f>
@@ -2818,7 +2734,7 @@
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="18">
         <f>refinery_results!C6</f>
@@ -2839,7 +2755,7 @@
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="18">
         <f>refinery_results!C7</f>
@@ -2860,7 +2776,7 @@
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C10" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="18">
         <f>refinery_results!C8</f>
@@ -2881,7 +2797,7 @@
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="18">
         <f>refinery_results!C9</f>
@@ -2938,10 +2854,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G3">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2975,105 +2891,107 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D665D7-1C7B-D740-9B8C-30A3564CB61E}">
-  <dimension ref="B1:W51"/>
+  <dimension ref="B1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="D1:K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="54" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="54" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.1640625" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B1" s="17"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="20"/>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="I1" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>71</v>
+      <c r="J1" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>72</v>
       </c>
       <c r="L1" s="20"/>
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="B2" s="52"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
+      <c r="D2" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="34"/>
       <c r="M2" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R2" s="22" t="s">
         <v>21</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="17"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="20"/>
       <c r="D3" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="27">
         <v>-2425</v>
@@ -3090,13 +3008,13 @@
       <c r="I3" s="27">
         <v>0</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="56"/>
       <c r="L3" s="35"/>
       <c r="M3" s="17"/>
       <c r="N3" s="20"/>
       <c r="O3" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P3" s="30">
         <v>2468.96</v>
@@ -3122,10 +3040,10 @@
       <c r="W3" s="19"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="17"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="20"/>
       <c r="D4" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="28">
         <v>-10125</v>
@@ -3142,13 +3060,13 @@
       <c r="I4" s="28">
         <v>-38</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="36"/>
       <c r="M4" s="17"/>
       <c r="N4" s="20"/>
       <c r="O4" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P4" s="28">
         <v>3973.87</v>
@@ -3172,14 +3090,14 @@
         <v>5000</v>
       </c>
       <c r="W4" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="17"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="20"/>
       <c r="D5" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="28">
         <v>2250</v>
@@ -3196,17 +3114,17 @@
       <c r="I5" s="28">
         <v>27</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="27">
+        <v>2308</v>
+      </c>
+      <c r="K5" s="28">
         <v>7000</v>
-      </c>
-      <c r="K5" s="27">
-        <v>2308</v>
       </c>
       <c r="L5" s="36"/>
       <c r="M5" s="17"/>
       <c r="N5" s="20"/>
       <c r="O5" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P5" s="28">
         <v>-2011</v>
@@ -3232,10 +3150,10 @@
       <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="17"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="20"/>
       <c r="D6" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="28">
         <v>-125</v>
@@ -3252,17 +3170,17 @@
       <c r="I6" s="28">
         <v>18</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="27">
+        <v>2955</v>
+      </c>
+      <c r="K6" s="28">
         <v>3000</v>
-      </c>
-      <c r="K6" s="27">
-        <v>2955</v>
       </c>
       <c r="L6" s="36"/>
       <c r="M6" s="17"/>
       <c r="N6" s="20"/>
       <c r="O6" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P6" s="28">
         <v>1210.71</v>
@@ -3286,14 +3204,14 @@
         <v>3000</v>
       </c>
       <c r="W6" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="17"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="20"/>
       <c r="D7" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="28">
         <v>2140</v>
@@ -3310,17 +3228,17 @@
       <c r="I7" s="28">
         <v>23</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="27">
+        <v>1765</v>
+      </c>
+      <c r="K7" s="28">
         <v>700</v>
-      </c>
-      <c r="K7" s="27">
-        <v>1765</v>
       </c>
       <c r="L7" s="36"/>
       <c r="M7" s="17"/>
       <c r="N7" s="20"/>
       <c r="O7" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P7" s="28">
         <v>2991.78</v>
@@ -3346,10 +3264,10 @@
       <c r="W7" s="19"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="17"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="20"/>
       <c r="D8" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="28">
         <v>4175</v>
@@ -3366,17 +3284,17 @@
       <c r="I8" s="28">
         <v>37</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="27">
+        <v>2081</v>
+      </c>
+      <c r="K8" s="28">
         <v>1800000</v>
-      </c>
-      <c r="K8" s="27">
-        <v>2081</v>
       </c>
       <c r="L8" s="36"/>
       <c r="M8" s="17"/>
       <c r="N8" s="20"/>
       <c r="O8" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P8" s="28">
         <v>2911.86</v>
@@ -3400,11 +3318,11 @@
         <v>700</v>
       </c>
       <c r="W8" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="17"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="20"/>
       <c r="D9" s="27" t="s">
         <v>6</v>
@@ -3424,17 +3342,17 @@
       <c r="I9" s="28">
         <v>42</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="27">
+        <v>2253</v>
+      </c>
+      <c r="K9" s="28">
         <v>25600</v>
-      </c>
-      <c r="K9" s="27">
-        <v>2253</v>
       </c>
       <c r="L9" s="36"/>
       <c r="M9" s="17"/>
       <c r="N9" s="20"/>
       <c r="O9" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P9" s="28">
         <v>5314.44</v>
@@ -3460,17 +3378,18 @@
       <c r="W9" s="19"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B10" s="52"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
+      <c r="D10" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="34"/>
       <c r="M10" s="17"/>
       <c r="N10" s="20"/>
@@ -3487,10 +3406,10 @@
       <c r="W10" s="19"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="17"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="20"/>
       <c r="D11" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="28">
         <v>3760</v>
@@ -3507,48 +3426,48 @@
       <c r="I11" s="28">
         <v>38</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="27">
+        <v>2450</v>
+      </c>
+      <c r="K11" s="28">
         <v>7000</v>
-      </c>
-      <c r="K11" s="27">
-        <v>2450</v>
       </c>
       <c r="L11" s="36"/>
       <c r="M11" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N11" s="20"/>
       <c r="O11" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R11" s="22" t="s">
         <v>21</v>
       </c>
       <c r="S11" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T11" s="22" t="s">
         <v>30</v>
       </c>
       <c r="U11" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V11" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W11" s="19"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="17"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="20"/>
       <c r="D12" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="28">
         <v>3710</v>
@@ -3565,16 +3484,16 @@
       <c r="I12" s="28">
         <v>33</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="27">
+        <v>1881</v>
+      </c>
+      <c r="K12" s="28">
         <v>3000</v>
-      </c>
-      <c r="K12" s="27">
-        <v>1881</v>
       </c>
       <c r="L12" s="36"/>
       <c r="N12" s="20"/>
       <c r="O12" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
@@ -3586,10 +3505,10 @@
       <c r="W12" s="19"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="17"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="20"/>
       <c r="D13" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="28">
         <v>4060</v>
@@ -3606,16 +3525,16 @@
       <c r="I13" s="28">
         <v>39</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="27">
+        <v>1872</v>
+      </c>
+      <c r="K13" s="28">
         <v>700</v>
-      </c>
-      <c r="K13" s="27">
-        <v>1872</v>
       </c>
       <c r="L13" s="36"/>
       <c r="N13" s="20"/>
       <c r="O13" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
@@ -3627,10 +3546,10 @@
       <c r="W13" s="19"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="17"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="20"/>
       <c r="D14" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="28">
         <v>4350</v>
@@ -3647,17 +3566,17 @@
       <c r="I14" s="28">
         <v>40</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="27">
+        <v>2900</v>
+      </c>
+      <c r="K14" s="28">
         <v>1800000</v>
-      </c>
-      <c r="K14" s="27">
-        <v>2900</v>
       </c>
       <c r="L14" s="36"/>
       <c r="M14" s="17"/>
       <c r="N14" s="20"/>
       <c r="O14" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -3669,7 +3588,7 @@
       <c r="W14" s="19"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="17"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="20"/>
       <c r="D15" s="27" t="s">
         <v>6</v>
@@ -3689,17 +3608,17 @@
       <c r="I15" s="28">
         <v>27</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="27">
+        <v>222</v>
+      </c>
+      <c r="K15" s="28">
         <v>25600</v>
-      </c>
-      <c r="K15" s="27">
-        <v>222</v>
       </c>
       <c r="L15" s="36"/>
       <c r="M15" s="17"/>
       <c r="N15" s="20"/>
       <c r="O15" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P15" s="28"/>
       <c r="Q15" s="28"/>
@@ -3711,17 +3630,18 @@
       <c r="W15" s="19"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B16" s="52"/>
       <c r="C16" s="20"/>
-      <c r="D16" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
       <c r="L16" s="34"/>
       <c r="N16" s="20"/>
       <c r="O16" s="24" t="s">
@@ -3737,10 +3657,10 @@
       <c r="W16" s="19"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="17"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="20"/>
       <c r="D17" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" s="27">
         <v>2734.69</v>
@@ -3757,47 +3677,47 @@
       <c r="I17" s="27">
         <v>23</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="25">
+        <v>2541</v>
+      </c>
+      <c r="K17" s="28">
         <v>4000</v>
-      </c>
-      <c r="K17" s="25">
-        <v>2541</v>
       </c>
       <c r="L17" s="37"/>
       <c r="M17" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R17" s="22" t="s">
         <v>21</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T17" s="22" t="s">
         <v>30</v>
       </c>
       <c r="U17" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V17" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B18" s="17"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="20"/>
       <c r="D18" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="28">
         <v>1283.6400000000001</v>
@@ -3814,17 +3734,17 @@
       <c r="I18" s="28">
         <v>18</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="27">
+        <v>5227</v>
+      </c>
+      <c r="K18" s="28">
         <v>3000</v>
-      </c>
-      <c r="K18" s="27">
-        <v>5227</v>
       </c>
       <c r="L18" s="36"/>
       <c r="M18" s="17"/>
       <c r="N18" s="20"/>
       <c r="O18" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
@@ -3835,10 +3755,10 @@
       <c r="V18" s="29"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="17"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="20"/>
       <c r="D19" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" s="28">
         <v>3024.68</v>
@@ -3855,17 +3775,17 @@
       <c r="I19" s="28">
         <v>32</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="27">
+        <v>1778</v>
+      </c>
+      <c r="K19" s="28">
         <v>700</v>
-      </c>
-      <c r="K19" s="27">
-        <v>1778</v>
       </c>
       <c r="L19" s="36"/>
       <c r="M19" s="17"/>
       <c r="N19" s="20"/>
       <c r="O19" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P19" s="28"/>
       <c r="Q19" s="28"/>
@@ -3876,10 +3796,10 @@
       <c r="V19" s="29"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="17"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="20"/>
       <c r="D20" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20" s="28">
         <v>6288.33</v>
@@ -3896,17 +3816,17 @@
       <c r="I20" s="28">
         <v>42</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="27">
+        <v>2379</v>
+      </c>
+      <c r="K20" s="28">
         <v>900000</v>
-      </c>
-      <c r="K20" s="27">
-        <v>2379</v>
       </c>
       <c r="L20" s="36"/>
       <c r="M20" s="17"/>
       <c r="N20" s="20"/>
       <c r="O20" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P20" s="28"/>
       <c r="Q20" s="28"/>
@@ -3917,7 +3837,7 @@
       <c r="V20" s="29"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="17"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="20"/>
       <c r="D21" s="27" t="s">
         <v>6</v>
@@ -3937,17 +3857,17 @@
       <c r="I21" s="28">
         <v>45</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="27">
+        <v>2995</v>
+      </c>
+      <c r="K21" s="28">
         <v>25600</v>
-      </c>
-      <c r="K21" s="27">
-        <v>2995</v>
       </c>
       <c r="L21" s="36"/>
       <c r="M21" s="17"/>
       <c r="N21" s="20"/>
       <c r="O21" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P21" s="28"/>
       <c r="Q21" s="28"/>
@@ -3958,17 +3878,18 @@
       <c r="V21" s="29"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B22" s="52"/>
       <c r="C22" s="20"/>
-      <c r="D22" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
+      <c r="D22" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="34"/>
       <c r="M22" s="17"/>
       <c r="N22" s="20"/>
@@ -3984,9 +3905,10 @@
       <c r="V22" s="29"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B23" s="55"/>
       <c r="C23" s="20"/>
       <c r="D23" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E23" s="28">
         <v>2582.06</v>
@@ -4003,46 +3925,47 @@
       <c r="I23" s="28">
         <v>25</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="27">
+        <v>2119</v>
+      </c>
+      <c r="K23" s="28">
         <v>4000</v>
-      </c>
-      <c r="K23" s="27">
-        <v>2119</v>
       </c>
       <c r="L23" s="36"/>
       <c r="M23" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N23" s="20"/>
       <c r="O23" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P23" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q23" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R23" s="22" t="s">
         <v>21</v>
       </c>
       <c r="S23" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T23" s="22" t="s">
         <v>30</v>
       </c>
       <c r="U23" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V23" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B24" s="55"/>
       <c r="C24" s="20"/>
       <c r="D24" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" s="28">
         <v>759.18</v>
@@ -4059,16 +3982,16 @@
       <c r="I24" s="28">
         <v>14</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="27">
+        <v>4723</v>
+      </c>
+      <c r="K24" s="28">
         <v>3000</v>
-      </c>
-      <c r="K24" s="27">
-        <v>4723</v>
       </c>
       <c r="L24" s="36"/>
       <c r="N24" s="20"/>
       <c r="O24" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
@@ -4079,10 +4002,10 @@
       <c r="V24" s="29"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="17"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="20"/>
       <c r="D25" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" s="28">
         <v>347.96</v>
@@ -4099,16 +4022,16 @@
       <c r="I25" s="28">
         <v>17</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="27">
+        <v>2667</v>
+      </c>
+      <c r="K25" s="28">
         <v>700</v>
-      </c>
-      <c r="K25" s="27">
-        <v>2667</v>
       </c>
       <c r="L25" s="36"/>
       <c r="N25" s="20"/>
       <c r="O25" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
@@ -4119,10 +4042,10 @@
       <c r="V25" s="29"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="17"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="20"/>
       <c r="D26" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26" s="28">
         <v>4869.4799999999996</v>
@@ -4139,17 +4062,17 @@
       <c r="I26" s="28">
         <v>32</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="27">
+        <v>2111</v>
+      </c>
+      <c r="K26" s="28">
         <v>900000</v>
-      </c>
-      <c r="K26" s="27">
-        <v>2111</v>
       </c>
       <c r="L26" s="36"/>
       <c r="M26" s="17"/>
       <c r="N26" s="20"/>
       <c r="O26" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
@@ -4160,36 +4083,37 @@
       <c r="V26" s="29"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B27" s="55"/>
       <c r="C27" s="20"/>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="62">
         <v>255.88</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="62">
         <v>64.86</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="63">
         <v>9874.1200000000008</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="62">
         <v>9</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="62">
         <v>15</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="61">
+        <v>1217</v>
+      </c>
+      <c r="K27" s="62">
         <v>256000</v>
-      </c>
-      <c r="K27" s="27">
-        <v>1217</v>
       </c>
       <c r="L27" s="36"/>
       <c r="M27" s="17"/>
       <c r="N27" s="20"/>
       <c r="O27" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P27" s="28"/>
       <c r="Q27" s="28"/>
@@ -4200,18 +4124,18 @@
       <c r="V27" s="29"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="17"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="20"/>
-      <c r="D28" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="17"/>
       <c r="N28" s="20"/>
       <c r="O28" s="24" t="s">
         <v>6</v>
@@ -4224,636 +4148,838 @@
       <c r="U28" s="26"/>
       <c r="V28" s="29"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B29" s="17"/>
+    <row r="29" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="50"/>
       <c r="C29" s="20"/>
-      <c r="D29" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="28">
-        <v>1097.22</v>
-      </c>
-      <c r="F29" s="28">
-        <v>65.59</v>
-      </c>
-      <c r="G29" s="38">
-        <v>9712.7800000000007</v>
-      </c>
-      <c r="H29" s="28">
-        <v>15</v>
-      </c>
-      <c r="I29" s="28">
-        <v>19</v>
-      </c>
-      <c r="J29" s="28">
-        <v>4000</v>
-      </c>
-      <c r="K29" s="27">
-        <v>986</v>
-      </c>
-      <c r="L29" s="36"/>
-      <c r="M29" s="19"/>
+      <c r="D29" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" s="20"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="29"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="17"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="20"/>
-      <c r="D30" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="28">
-        <v>163.29</v>
-      </c>
-      <c r="F30" s="28">
-        <v>67.03</v>
-      </c>
-      <c r="G30" s="38">
-        <v>9691.7099999999991</v>
-      </c>
-      <c r="H30" s="28">
-        <v>18</v>
-      </c>
-      <c r="I30" s="28">
-        <v>9</v>
-      </c>
-      <c r="J30" s="28">
-        <v>3000</v>
-      </c>
-      <c r="K30" s="27">
-        <v>3034</v>
-      </c>
+      <c r="D30" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
       <c r="L30" s="36"/>
       <c r="M30" s="19"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="17"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="20"/>
       <c r="D31" s="27" t="s">
         <v>47</v>
       </c>
       <c r="E31" s="28">
-        <v>2812.33</v>
+        <v>1097.22</v>
       </c>
       <c r="F31" s="28">
-        <v>64.88</v>
+        <v>65.59</v>
       </c>
       <c r="G31" s="38">
-        <v>9517.67</v>
+        <v>9712.7800000000007</v>
       </c>
       <c r="H31" s="28">
+        <v>15</v>
+      </c>
+      <c r="I31" s="28">
         <v>19</v>
       </c>
-      <c r="I31" s="28">
-        <v>28</v>
-      </c>
-      <c r="J31" s="28">
-        <v>700</v>
-      </c>
-      <c r="K31" s="27">
-        <v>1789</v>
+      <c r="J31" s="27">
+        <v>986</v>
+      </c>
+      <c r="K31" s="28">
+        <v>4000</v>
       </c>
       <c r="L31" s="36"/>
+      <c r="M31" s="19"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="17"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="20"/>
       <c r="D32" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E32" s="28">
-        <v>4184.3599999999997</v>
+        <v>163.29</v>
       </c>
       <c r="F32" s="28">
-        <v>68.41</v>
+        <v>67.03</v>
       </c>
       <c r="G32" s="38">
-        <v>9325.64</v>
+        <v>9691.7099999999991</v>
       </c>
       <c r="H32" s="28">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I32" s="28">
-        <v>38</v>
-      </c>
-      <c r="J32" s="28">
-        <v>900000</v>
-      </c>
-      <c r="K32" s="27">
-        <v>1618</v>
+        <v>9</v>
+      </c>
+      <c r="J32" s="27">
+        <v>3034</v>
+      </c>
+      <c r="K32" s="28">
+        <v>3000</v>
       </c>
       <c r="L32" s="36"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="17"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="20"/>
       <c r="D33" s="27" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E33" s="28">
-        <v>3734.99</v>
+        <v>2812.33</v>
       </c>
       <c r="F33" s="28">
-        <v>63.76</v>
+        <v>64.88</v>
       </c>
       <c r="G33" s="38">
-        <v>9655.01</v>
+        <v>9517.67</v>
       </c>
       <c r="H33" s="28">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I33" s="28">
-        <v>33</v>
-      </c>
-      <c r="J33" s="28">
-        <v>25600</v>
-      </c>
-      <c r="K33" s="27">
-        <v>2628</v>
+        <v>28</v>
+      </c>
+      <c r="J33" s="27">
+        <v>1789</v>
+      </c>
+      <c r="K33" s="28">
+        <v>700</v>
       </c>
       <c r="L33" s="36"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="55"/>
       <c r="C34" s="20"/>
-      <c r="D34" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="34"/>
+      <c r="D34" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="28">
+        <v>4184.3599999999997</v>
+      </c>
+      <c r="F34" s="28">
+        <v>68.41</v>
+      </c>
+      <c r="G34" s="38">
+        <v>9325.64</v>
+      </c>
+      <c r="H34" s="28">
+        <v>29</v>
+      </c>
+      <c r="I34" s="28">
+        <v>38</v>
+      </c>
+      <c r="J34" s="27">
+        <v>1618</v>
+      </c>
+      <c r="K34" s="28">
+        <v>900000</v>
+      </c>
+      <c r="L34" s="36"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="55"/>
       <c r="C35" s="20"/>
       <c r="D35" s="27" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E35" s="28">
-        <v>2739.48</v>
+        <v>3734.99</v>
       </c>
       <c r="F35" s="28">
-        <v>65.31</v>
+        <v>63.76</v>
       </c>
       <c r="G35" s="38">
-        <v>9790.52</v>
+        <v>9655.01</v>
       </c>
       <c r="H35" s="28">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I35" s="28">
-        <v>32</v>
-      </c>
-      <c r="J35" s="28">
-        <v>4000</v>
-      </c>
-      <c r="K35" s="27">
-        <v>1111</v>
-      </c>
-      <c r="L35" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="J35" s="27">
+        <v>2628</v>
+      </c>
+      <c r="K35" s="28">
+        <v>25600</v>
+      </c>
+      <c r="L35" s="34"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="52"/>
       <c r="C36" s="20"/>
-      <c r="D36" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="28">
-        <v>2764.36</v>
-      </c>
-      <c r="F36" s="28">
-        <v>64.34</v>
-      </c>
-      <c r="G36" s="38">
-        <v>9845.64</v>
-      </c>
-      <c r="H36" s="28">
-        <v>19</v>
-      </c>
-      <c r="I36" s="28">
-        <v>29</v>
-      </c>
-      <c r="J36" s="28">
-        <v>2500</v>
-      </c>
-      <c r="K36" s="27">
-        <v>1362</v>
-      </c>
+      <c r="D36" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
       <c r="L36" s="36"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="17"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="20"/>
       <c r="D37" s="27" t="s">
         <v>47</v>
       </c>
       <c r="E37" s="28">
-        <v>2735.36</v>
+        <v>2739.48</v>
       </c>
       <c r="F37" s="28">
-        <v>64.64</v>
+        <v>65.31</v>
       </c>
       <c r="G37" s="38">
-        <v>9564.64</v>
+        <v>9790.52</v>
       </c>
       <c r="H37" s="28">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I37" s="28">
-        <v>26</v>
-      </c>
-      <c r="J37" s="28">
-        <v>700</v>
-      </c>
-      <c r="K37" s="27">
-        <v>1515</v>
+        <v>32</v>
+      </c>
+      <c r="J37" s="27">
+        <v>1111</v>
+      </c>
+      <c r="K37" s="28">
+        <v>4000</v>
       </c>
       <c r="L37" s="36"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="17"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="20"/>
       <c r="D38" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E38" s="28">
-        <v>4047.22</v>
+        <v>2764.36</v>
       </c>
       <c r="F38" s="28">
-        <v>66.36</v>
+        <v>64.34</v>
       </c>
       <c r="G38" s="38">
-        <v>9402.7800000000007</v>
+        <v>9845.64</v>
       </c>
       <c r="H38" s="28">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I38" s="28">
-        <v>37</v>
-      </c>
-      <c r="J38" s="28">
-        <v>900000</v>
-      </c>
-      <c r="K38" s="27">
-        <v>2310</v>
+        <v>29</v>
+      </c>
+      <c r="J38" s="27">
+        <v>1362</v>
+      </c>
+      <c r="K38" s="28">
+        <v>2500</v>
       </c>
       <c r="L38" s="36"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="55"/>
       <c r="C39" s="20"/>
       <c r="D39" s="27" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E39" s="28">
-        <v>463.56</v>
+        <v>2735.36</v>
       </c>
       <c r="F39" s="28">
-        <v>61.18</v>
+        <v>64.64</v>
       </c>
       <c r="G39" s="38">
-        <v>10286.44</v>
+        <v>9564.64</v>
       </c>
       <c r="H39" s="28">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I39" s="28">
-        <v>8</v>
-      </c>
-      <c r="J39" s="28">
-        <v>512000</v>
-      </c>
-      <c r="K39" s="27">
-        <v>1844</v>
+        <v>26</v>
+      </c>
+      <c r="J39" s="27">
+        <v>1515</v>
+      </c>
+      <c r="K39" s="28">
+        <v>700</v>
       </c>
       <c r="L39" s="36"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="55"/>
       <c r="C40" s="20"/>
-      <c r="D40" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="34"/>
+      <c r="D40" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="28">
+        <v>4047.22</v>
+      </c>
+      <c r="F40" s="28">
+        <v>66.36</v>
+      </c>
+      <c r="G40" s="38">
+        <v>9402.7800000000007</v>
+      </c>
+      <c r="H40" s="28">
+        <v>25</v>
+      </c>
+      <c r="I40" s="28">
+        <v>37</v>
+      </c>
+      <c r="J40" s="27">
+        <v>2310</v>
+      </c>
+      <c r="K40" s="28">
+        <v>900000</v>
+      </c>
+      <c r="L40" s="36"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="17"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="20"/>
       <c r="D41" s="27" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E41" s="28">
-        <v>2725.61</v>
+        <v>463.56</v>
       </c>
       <c r="F41" s="28">
-        <v>61.41</v>
+        <v>61.18</v>
       </c>
       <c r="G41" s="38">
-        <v>10694.39</v>
+        <v>10286.44</v>
       </c>
       <c r="H41" s="28">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I41" s="28">
-        <v>25</v>
-      </c>
-      <c r="J41" s="28">
-        <v>4000</v>
-      </c>
-      <c r="K41" s="27">
-        <v>2160</v>
-      </c>
-      <c r="L41" s="36"/>
+        <v>8</v>
+      </c>
+      <c r="J41" s="27">
+        <v>1844</v>
+      </c>
+      <c r="K41" s="28">
+        <v>512000</v>
+      </c>
+      <c r="L41" s="34"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="17"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="20"/>
-      <c r="D42" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="28">
-        <v>1773.24</v>
-      </c>
-      <c r="F42" s="28">
-        <v>57.94</v>
-      </c>
-      <c r="G42" s="38">
-        <v>10692.76</v>
-      </c>
-      <c r="H42" s="28">
-        <v>13</v>
-      </c>
-      <c r="I42" s="28">
-        <v>19</v>
-      </c>
-      <c r="J42" s="28">
-        <v>2500</v>
-      </c>
-      <c r="K42" s="27">
-        <v>3173</v>
-      </c>
+      <c r="D42" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
       <c r="L42" s="36"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="17"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="20"/>
       <c r="D43" s="27" t="s">
         <v>47</v>
       </c>
       <c r="E43" s="28">
-        <v>2500.79</v>
+        <v>2725.61</v>
       </c>
       <c r="F43" s="28">
-        <v>58.99</v>
+        <v>61.41</v>
       </c>
       <c r="G43" s="38">
-        <v>11269.21</v>
+        <v>10694.39</v>
       </c>
       <c r="H43" s="28">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I43" s="28">
-        <v>28</v>
-      </c>
-      <c r="J43" s="28">
-        <v>700</v>
-      </c>
-      <c r="K43" s="27">
-        <v>1070</v>
+        <v>25</v>
+      </c>
+      <c r="J43" s="27">
+        <v>2160</v>
+      </c>
+      <c r="K43" s="28">
+        <v>4000</v>
       </c>
       <c r="L43" s="36"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="17"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="20"/>
       <c r="D44" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E44" s="28">
-        <v>6220.63</v>
+        <v>1773.24</v>
       </c>
       <c r="F44" s="28">
-        <v>59.44</v>
+        <v>57.94</v>
       </c>
       <c r="G44" s="38">
-        <v>10229.370000000001</v>
+        <v>10692.76</v>
       </c>
       <c r="H44" s="28">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I44" s="28">
-        <v>43</v>
-      </c>
-      <c r="J44" s="28">
-        <v>900000</v>
-      </c>
-      <c r="K44" s="27">
-        <v>3062</v>
+        <v>19</v>
+      </c>
+      <c r="J44" s="27">
+        <v>3173</v>
+      </c>
+      <c r="K44" s="28">
+        <v>2500</v>
       </c>
       <c r="L44" s="36"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="17"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="20"/>
       <c r="D45" s="27" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E45" s="28">
-        <v>5674</v>
+        <v>2500.79</v>
       </c>
       <c r="F45" s="28">
-        <v>61.54</v>
+        <v>58.99</v>
       </c>
       <c r="G45" s="38">
-        <v>10396</v>
+        <v>11269.21</v>
       </c>
       <c r="H45" s="28">
+        <v>19</v>
+      </c>
+      <c r="I45" s="28">
+        <v>28</v>
+      </c>
+      <c r="J45" s="27">
+        <v>1070</v>
+      </c>
+      <c r="K45" s="28">
+        <v>700</v>
+      </c>
+      <c r="L45" s="36"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="55"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="28">
+        <v>6220.63</v>
+      </c>
+      <c r="F46" s="28">
+        <v>59.44</v>
+      </c>
+      <c r="G46" s="38">
+        <v>10229.370000000001</v>
+      </c>
+      <c r="H46" s="28">
         <v>32</v>
       </c>
-      <c r="I45" s="28">
-        <v>44</v>
-      </c>
-      <c r="J45" s="28">
-        <v>25600</v>
-      </c>
-      <c r="K45" s="27">
-        <v>2530</v>
-      </c>
-      <c r="L45" s="36"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C46" s="20"/>
-      <c r="D46" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="34"/>
+      <c r="I46" s="28">
+        <v>43</v>
+      </c>
+      <c r="J46" s="27">
+        <v>3062</v>
+      </c>
+      <c r="K46" s="28">
+        <v>900000</v>
+      </c>
+      <c r="L46" s="36"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="55"/>
       <c r="C47" s="20"/>
       <c r="D47" s="27" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E47" s="28">
-        <v>3969.18</v>
+        <v>5674</v>
       </c>
       <c r="F47" s="28">
-        <v>69.53</v>
+        <v>61.54</v>
       </c>
       <c r="G47" s="38">
-        <v>9400.82</v>
+        <v>10396</v>
       </c>
       <c r="H47" s="28">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I47" s="28">
-        <v>38</v>
-      </c>
-      <c r="J47" s="28">
-        <v>4000</v>
-      </c>
-      <c r="K47" s="27">
-        <v>2195</v>
-      </c>
-      <c r="L47" s="36"/>
+        <v>44</v>
+      </c>
+      <c r="J47" s="27">
+        <v>2530</v>
+      </c>
+      <c r="K47" s="28">
+        <v>25600</v>
+      </c>
+      <c r="L47" s="34"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B48" s="52"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="28">
-        <v>2472.4899999999998</v>
-      </c>
-      <c r="F48" s="28">
-        <v>71.94</v>
-      </c>
-      <c r="G48" s="38">
-        <v>9577.51</v>
-      </c>
-      <c r="H48" s="28">
-        <v>26</v>
-      </c>
-      <c r="I48" s="28">
-        <v>35</v>
-      </c>
-      <c r="J48" s="28">
-        <v>2500</v>
-      </c>
-      <c r="K48" s="27">
-        <v>2193</v>
-      </c>
+      <c r="D48" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
       <c r="L48" s="36"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" s="17"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="20"/>
       <c r="D49" s="27" t="s">
         <v>47</v>
       </c>
       <c r="E49" s="28">
-        <v>3674.63</v>
+        <v>3969.18</v>
       </c>
       <c r="F49" s="28">
-        <v>69.849999999999994</v>
+        <v>69.53</v>
       </c>
       <c r="G49" s="38">
-        <v>9395.3700000000008</v>
+        <v>9400.82</v>
       </c>
       <c r="H49" s="28">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I49" s="28">
         <v>38</v>
       </c>
-      <c r="J49" s="28">
-        <v>700</v>
-      </c>
-      <c r="K49" s="27">
-        <v>1087</v>
+      <c r="J49" s="27">
+        <v>2195</v>
+      </c>
+      <c r="K49" s="28">
+        <v>4000</v>
       </c>
       <c r="L49" s="36"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="17"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="20"/>
       <c r="D50" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E50" s="28">
-        <v>4689.71</v>
+        <v>2472.4899999999998</v>
       </c>
       <c r="F50" s="28">
-        <v>68.5</v>
+        <v>71.94</v>
       </c>
       <c r="G50" s="38">
-        <v>9220.2900000000009</v>
+        <v>9577.51</v>
       </c>
       <c r="H50" s="28">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I50" s="28">
-        <v>41</v>
-      </c>
-      <c r="J50" s="28">
-        <v>900000</v>
-      </c>
-      <c r="K50" s="27">
-        <v>2272</v>
+        <v>35</v>
+      </c>
+      <c r="J50" s="27">
+        <v>2193</v>
+      </c>
+      <c r="K50" s="28">
+        <v>2500</v>
       </c>
       <c r="L50" s="36"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" s="55"/>
       <c r="C51" s="20"/>
       <c r="D51" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="28">
+        <v>3674.63</v>
+      </c>
+      <c r="F51" s="28">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="G51" s="38">
+        <v>9395.3700000000008</v>
+      </c>
+      <c r="H51" s="28">
+        <v>28</v>
+      </c>
+      <c r="I51" s="28">
+        <v>38</v>
+      </c>
+      <c r="J51" s="27">
+        <v>1087</v>
+      </c>
+      <c r="K51" s="28">
+        <v>700</v>
+      </c>
+      <c r="L51" s="36"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B52" s="55"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="28">
+        <v>4689.71</v>
+      </c>
+      <c r="F52" s="28">
+        <v>68.5</v>
+      </c>
+      <c r="G52" s="38">
+        <v>9220.2900000000009</v>
+      </c>
+      <c r="H52" s="28">
+        <v>30</v>
+      </c>
+      <c r="I52" s="28">
+        <v>41</v>
+      </c>
+      <c r="J52" s="27">
+        <v>2272</v>
+      </c>
+      <c r="K52" s="28">
+        <v>900000</v>
+      </c>
+      <c r="L52" s="36"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B53" s="55"/>
+      <c r="D53" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E53" s="28">
         <v>2539.19</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F53" s="28">
         <v>65.23</v>
       </c>
-      <c r="G51" s="38">
+      <c r="G53" s="38">
         <v>10520.81</v>
       </c>
-      <c r="H51" s="28">
+      <c r="H53" s="28">
         <v>22</v>
       </c>
-      <c r="I51" s="28">
+      <c r="I53" s="28">
         <v>33</v>
       </c>
-      <c r="J51" s="28">
+      <c r="J53" s="27">
+        <v>1120</v>
+      </c>
+      <c r="K53" s="28">
         <v>256000</v>
       </c>
-      <c r="K51" s="27">
-        <v>1120</v>
-      </c>
-      <c r="L51" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="D48:K48"/>
+    <mergeCell ref="D30:K30"/>
     <mergeCell ref="D10:K10"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D28:K28"/>
     <mergeCell ref="D2:K2"/>
-    <mergeCell ref="D34:K34"/>
   </mergeCells>
-  <conditionalFormatting sqref="E29:E33 E35:E39">
+  <conditionalFormatting sqref="E31:E35 E37:E41">
+    <cfRule type="colorScale" priority="231">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F35 F37:F41">
+    <cfRule type="colorScale" priority="230">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G35 G37:G41">
+    <cfRule type="colorScale" priority="229">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:E47 E49:E53">
+    <cfRule type="colorScale" priority="228">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:F47 F49:F53">
+    <cfRule type="colorScale" priority="227">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:G47 G49:G53">
+    <cfRule type="colorScale" priority="226">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H35 H86:H1048576 H3:H9 H1 H11:H15 H17:H21 H23:H28 H37:H41 H43:H47 H49:H58">
+    <cfRule type="colorScale" priority="225">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:I35 I86:I1048576 I3:I9 I1 I11:I15 I17:I21 I23:I28 I37:I41 I43:I47 I49:I58">
+    <cfRule type="colorScale" priority="224">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P16">
+    <cfRule type="colorScale" priority="223">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q16">
+    <cfRule type="colorScale" priority="222">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R16">
+    <cfRule type="colorScale" priority="221">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S16">
+    <cfRule type="colorScale" priority="220">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T16">
     <cfRule type="colorScale" priority="219">
       <colorScale>
         <cfvo type="min"/>
@@ -4865,19 +4991,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F33 F35:F39">
+  <conditionalFormatting sqref="P17:P29">
     <cfRule type="colorScale" priority="218">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G33 G35:G39">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17:Q29">
     <cfRule type="colorScale" priority="217">
       <colorScale>
         <cfvo type="min"/>
@@ -4889,43 +5015,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E45 E47:E51">
+  <conditionalFormatting sqref="R17:R29">
     <cfRule type="colorScale" priority="216">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F45 F47:F51">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S17:S29">
     <cfRule type="colorScale" priority="215">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G45 G47:G51">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T17:T29">
     <cfRule type="colorScale" priority="214">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85:H1048576 H3:H9 H1 H11:H15 H17:H21 H23:H27 H29:H33 H35:H39 H41:H45 H47:H57">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E9 E11:E15 E17:E21 E23:E28">
+    <cfRule type="colorScale" priority="452">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F9 F11:F15 F17:F21 F23:F28">
+    <cfRule type="colorScale" priority="454">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G9 G11:G15 G17:G21 G23:G28">
+    <cfRule type="colorScale" priority="456">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E35 P3:P29 E3:E9 E1 E11:E15 E17:E21 E23:E28 E37:E41 E43:E47 E49:E58 E86:E1048576">
     <cfRule type="colorScale" priority="213">
       <colorScale>
         <cfvo type="min"/>
@@ -4937,55 +5099,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I85:I1048576 I3:I9 I1 I11:I15 I17:I21 I23:I27 I29:I33 I35:I39 I41:I45 I47:I57">
+  <conditionalFormatting sqref="F31:F35 Q3:Q29 F3:F9 F1 F11:F15 F17:F21 F23:F28 F37:F41 F43:F47 F49:F58 F86:F1048576">
     <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P16">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G35 R3:R29 G3:G9 G1 G11:G15 G17:G21 G23:G28 G37:G41 G43:G47 G49:G58 G86:G1048576">
     <cfRule type="colorScale" priority="211">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q16">
-    <cfRule type="colorScale" priority="210">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R16">
-    <cfRule type="colorScale" priority="209">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S16">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H35 S3:S29 H3:H9 H1 H11:H15 H17:H21 H23:H28 H37:H41 H43:H47 H49:H58 H86:H1048576">
     <cfRule type="colorScale" priority="208">
       <colorScale>
         <cfvo type="min"/>
@@ -4997,7 +5135,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T16">
+  <conditionalFormatting sqref="I31:I35 T3:T29 I3:I9 I1 I11:I15 I17:I21 I23:I28 I37:I41 I43:I47 I49:I58 I86:I1048576">
     <cfRule type="colorScale" priority="207">
       <colorScale>
         <cfvo type="min"/>
@@ -5009,163 +5147,139 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P28">
-    <cfRule type="colorScale" priority="206">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q28">
-    <cfRule type="colorScale" priority="205">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R28">
-    <cfRule type="colorScale" priority="204">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S17:S28">
-    <cfRule type="colorScale" priority="203">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T17:T28">
-    <cfRule type="colorScale" priority="202">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E9 E11:E15 E17:E21 E23:E27">
-    <cfRule type="colorScale" priority="440">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F9 F11:F15 F17:F21 F23:F27">
-    <cfRule type="colorScale" priority="442">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G9 G11:G15 G17:G21 G23:G27">
-    <cfRule type="colorScale" priority="444">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E33 P3:P28 E3:E9 E1 E11:E15 E17:E21 E23:E27 E35:E39 E41:E45 E47:E57 E85:E1048576">
-    <cfRule type="colorScale" priority="201">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F33 Q3:Q28 F3:F9 F1 F11:F15 F17:F21 F23:F27 F35:F39 F41:F45 F47:F57 F85:F1048576">
-    <cfRule type="colorScale" priority="200">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G33 R3:R28 G3:G9 G1 G11:G15 G17:G21 G23:G27 G35:G39 G41:G45 G47:G57 G85:G1048576">
-    <cfRule type="colorScale" priority="199">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H33 S3:S28 H3:H9 H1 H11:H15 H17:H21 H23:H27 H35:H39 H41:H45 H47:H57 H85:H1048576">
-    <cfRule type="colorScale" priority="196">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I33 T3:T28 I3:I9 I1 I11:I15 I17:I21 I23:I27 I35:I39 I41:I45 I47:I57 I85:I1048576">
-    <cfRule type="colorScale" priority="195">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="S2">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E35 E3:E9 E1 E11:E15 E17:E21 E23:E28 E37:E41 E43:E47 E49:E1048576">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F35 F3:F9 F1 F11:F15 F17:F21 F23:F28 F37:F41 F43:F47 F49:F1048576">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G35 G3:G9 G1 G11:G15 G17:G21 G23:G28 G37:G41 G43:G47 G49:G1048576">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H35 H3:H9 H1 H11:H15 H17:H21 H23:H28 H37:H41 H43:H47 H49:H1048576">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:I35 I3:I9 I1 I11:I15 I17:I21 I23:I28 I37:I41 I43:I47 I49:I1048576">
     <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
@@ -5177,128 +5291,140 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2">
-    <cfRule type="colorScale" priority="144">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
-    <cfRule type="colorScale" priority="143">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="colorScale" priority="142">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2">
-    <cfRule type="colorScale" priority="141">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2">
-    <cfRule type="colorScale" priority="140">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2">
-    <cfRule type="colorScale" priority="139">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E33 E3:E9 E1 E11:E15 E17:E21 E23:E27 E35:E39 E41:E45 E47:E1048576">
-    <cfRule type="colorScale" priority="138">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F33 F3:F9 F1 F11:F15 F17:F21 F23:F27 F35:F39 F41:F45 F47:F1048576">
-    <cfRule type="colorScale" priority="137">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G33 G3:G9 G1 G11:G15 G17:G21 G23:G27 G35:G39 G41:G45 G47:G1048576">
-    <cfRule type="colorScale" priority="135">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H33 H3:H9 H1 H11:H15 H17:H21 H23:H27 H35:H39 H41:H45 H47:H1048576">
-    <cfRule type="colorScale" priority="134">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I33 I3:I9 I1 I11:I15 I17:I21 I23:I27 I35:I39 I41:I45 I47:I1048576">
-    <cfRule type="colorScale" priority="133">
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5327,108 +5453,108 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D2" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
+      <c r="D2" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="47"/>
     </row>
     <row r="3" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>81</v>
-      </c>
       <c r="F3" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="H4" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>83</v>
-      </c>
       <c r="K4" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D5" s="42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>83</v>
-      </c>
       <c r="G5" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D6" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -5441,7 +5567,7 @@
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D7" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="18">
         <f>TopSim_Results!E3</f>
@@ -5457,7 +5583,7 @@
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D8" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="18">
         <f>TopSim_Results!E4</f>
@@ -5473,7 +5599,7 @@
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D9" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="18">
         <f>TopSim_Results!E5</f>
@@ -5483,34 +5609,34 @@
         <f>TopSim_Results!E11</f>
         <v>3760</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="44">
         <f>TopSim_Results!E17</f>
         <v>2734.69</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="44">
         <f>TopSim_Results!E23</f>
         <v>2582.06</v>
       </c>
-      <c r="I9" s="43">
-        <f>TopSim_Results!E29</f>
+      <c r="I9" s="44">
+        <f>TopSim_Results!E31</f>
         <v>1097.22</v>
       </c>
-      <c r="J9" s="43">
-        <f>TopSim_Results!E35</f>
+      <c r="J9" s="44">
+        <f>TopSim_Results!E37</f>
         <v>2739.48</v>
       </c>
-      <c r="K9" s="43">
-        <f>TopSim_Results!E41</f>
+      <c r="K9" s="44">
+        <f>TopSim_Results!E43</f>
         <v>2725.61</v>
       </c>
-      <c r="L9" s="43">
-        <f>TopSim_Results!E47</f>
+      <c r="L9" s="44">
+        <f>TopSim_Results!E49</f>
         <v>3969.18</v>
       </c>
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="18">
         <f>TopSim_Results!E6</f>
@@ -5520,34 +5646,34 @@
         <f>TopSim_Results!E12</f>
         <v>3710</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="44">
         <f>TopSim_Results!E18</f>
         <v>1283.6400000000001</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="44">
         <f>TopSim_Results!E24</f>
         <v>759.18</v>
       </c>
-      <c r="I10" s="43">
-        <f>TopSim_Results!E30</f>
+      <c r="I10" s="44">
+        <f>TopSim_Results!E32</f>
         <v>163.29</v>
       </c>
-      <c r="J10" s="43">
-        <f>TopSim_Results!E36</f>
+      <c r="J10" s="44">
+        <f>TopSim_Results!E38</f>
         <v>2764.36</v>
       </c>
-      <c r="K10" s="43">
-        <f>TopSim_Results!E42</f>
+      <c r="K10" s="44">
+        <f>TopSim_Results!E44</f>
         <v>1773.24</v>
       </c>
-      <c r="L10" s="43">
-        <f>TopSim_Results!E48</f>
+      <c r="L10" s="44">
+        <f>TopSim_Results!E50</f>
         <v>2472.4899999999998</v>
       </c>
     </row>
     <row r="11" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="18">
         <f>TopSim_Results!E7</f>
@@ -5557,34 +5683,34 @@
         <f>TopSim_Results!E13</f>
         <v>4060</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="44">
         <f>TopSim_Results!E19</f>
         <v>3024.68</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="44">
         <f>TopSim_Results!E25</f>
         <v>347.96</v>
       </c>
-      <c r="I11" s="43">
-        <f>TopSim_Results!E31</f>
+      <c r="I11" s="44">
+        <f>TopSim_Results!E33</f>
         <v>2812.33</v>
       </c>
-      <c r="J11" s="43">
-        <f>TopSim_Results!E37</f>
+      <c r="J11" s="44">
+        <f>TopSim_Results!E39</f>
         <v>2735.36</v>
       </c>
-      <c r="K11" s="43">
-        <f>TopSim_Results!E43</f>
+      <c r="K11" s="44">
+        <f>TopSim_Results!E45</f>
         <v>2500.79</v>
       </c>
-      <c r="L11" s="43">
-        <f>TopSim_Results!E49</f>
+      <c r="L11" s="44">
+        <f>TopSim_Results!E51</f>
         <v>3674.63</v>
       </c>
     </row>
     <row r="12" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="18">
         <f>TopSim_Results!E8</f>
@@ -5594,28 +5720,28 @@
         <f>TopSim_Results!E14</f>
         <v>4350</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="44">
         <f>TopSim_Results!E20</f>
         <v>6288.33</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="44">
         <f>TopSim_Results!E26</f>
         <v>4869.4799999999996</v>
       </c>
-      <c r="I12" s="43">
-        <f>TopSim_Results!E32</f>
+      <c r="I12" s="44">
+        <f>TopSim_Results!E34</f>
         <v>4184.3599999999997</v>
       </c>
-      <c r="J12" s="43">
-        <f>TopSim_Results!E38</f>
+      <c r="J12" s="44">
+        <f>TopSim_Results!E40</f>
         <v>4047.22</v>
       </c>
-      <c r="K12" s="43">
-        <f>TopSim_Results!E44</f>
+      <c r="K12" s="44">
+        <f>TopSim_Results!E46</f>
         <v>6220.63</v>
       </c>
-      <c r="L12" s="43">
-        <f>TopSim_Results!E50</f>
+      <c r="L12" s="44">
+        <f>TopSim_Results!E52</f>
         <v>4689.71</v>
       </c>
     </row>
@@ -5631,28 +5757,28 @@
         <f>TopSim_Results!E15</f>
         <v>1565</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="44">
         <f>TopSim_Results!E21</f>
         <v>5929.52</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="44">
         <f>TopSim_Results!E27</f>
         <v>255.88</v>
       </c>
-      <c r="I13" s="43">
-        <f>TopSim_Results!E33</f>
+      <c r="I13" s="44">
+        <f>TopSim_Results!E35</f>
         <v>3734.99</v>
       </c>
-      <c r="J13" s="43">
-        <f>TopSim_Results!E39</f>
+      <c r="J13" s="44">
+        <f>TopSim_Results!E41</f>
         <v>463.56</v>
       </c>
-      <c r="K13" s="43">
-        <f>TopSim_Results!E45</f>
+      <c r="K13" s="44">
+        <f>TopSim_Results!E47</f>
         <v>5674</v>
       </c>
-      <c r="L13" s="43">
-        <f>TopSim_Results!E51</f>
+      <c r="L13" s="44">
+        <f>TopSim_Results!E53</f>
         <v>2539.19</v>
       </c>
     </row>
@@ -5661,10 +5787,10 @@
     <mergeCell ref="D2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:L5">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5710,10 +5836,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE22436E-1B01-4E4E-82EB-F6524F9BD974}">
-  <dimension ref="C4:O46"/>
+  <dimension ref="C3:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5721,169 +5847,175 @@
     <col min="1" max="2" width="10.83203125" style="8"/>
     <col min="3" max="3" width="37.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="8"/>
-    <col min="5" max="5" width="19.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.83203125" style="8"/>
-    <col min="10" max="10" width="14.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" style="8"/>
-    <col min="13" max="13" width="16.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C4" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>38</v>
+      <c r="F4" s="10">
+        <v>62</v>
+      </c>
+      <c r="G4" s="10">
+        <v>51</v>
+      </c>
+      <c r="H4" s="10">
+        <v>56</v>
+      </c>
+      <c r="I4" s="10">
+        <v>75</v>
+      </c>
+      <c r="J4" s="10">
+        <v>75</v>
+      </c>
+      <c r="K4" s="10">
+        <v>66</v>
+      </c>
+      <c r="L4" s="10">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="E5" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="10">
-        <v>62</v>
+        <v>58.93</v>
       </c>
       <c r="G5" s="10">
-        <v>51</v>
+        <v>49.9</v>
       </c>
       <c r="H5" s="10">
-        <v>56</v>
+        <v>50.7</v>
       </c>
       <c r="I5" s="10">
-        <v>75</v>
+        <v>68.8</v>
       </c>
       <c r="J5" s="10">
-        <v>75</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="K5" s="10">
-        <v>66</v>
+        <v>58.3</v>
       </c>
       <c r="L5" s="10">
-        <v>65</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="10">
-        <v>58.93</v>
-      </c>
-      <c r="G6" s="10">
-        <v>49.9</v>
-      </c>
-      <c r="H6" s="10">
-        <v>50.7</v>
-      </c>
-      <c r="I6" s="10">
-        <v>68.8</v>
-      </c>
-      <c r="J6" s="10">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="K6" s="10">
-        <v>58.3</v>
-      </c>
-      <c r="L6" s="10">
-        <v>59.8</v>
-      </c>
+      <c r="F6" s="70">
+        <v>1.86</v>
+      </c>
+      <c r="G6" s="70">
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="70">
+        <v>1.8</v>
+      </c>
+      <c r="I6" s="70">
+        <v>4.5</v>
+      </c>
+      <c r="J6" s="70">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K6" s="70">
+        <v>3.6</v>
+      </c>
+      <c r="L6" s="70">
+        <v>3</v>
+      </c>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="E7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1.86</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="I7" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="J7" s="10">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K7" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="L7" s="10">
-        <v>3</v>
+      <c r="E7" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="71" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="E8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="E8" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E9" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="F9" s="12">
         <v>62</v>
@@ -5911,7 +6043,7 @@
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="12">
         <v>58.93</v>
@@ -5940,7 +6072,7 @@
     <row r="11" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D11" s="9"/>
       <c r="E11" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" s="12">
         <v>59.1</v>
@@ -5970,7 +6102,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="11" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="F12" s="12">
         <v>62.8</v>
@@ -6004,7 +6136,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="11" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F13" s="12">
         <v>62.59</v>
@@ -6038,7 +6170,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="11" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="F14" s="12">
         <v>64.290000000000006</v>
@@ -6072,7 +6204,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" s="12">
         <v>65.05</v>
@@ -6139,44 +6271,23 @@
     <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="E17" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="72"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C18" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="11" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="F18" s="12">
         <v>63.2</v>
@@ -6210,7 +6321,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="11" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F19" s="12">
         <v>62.31</v>
@@ -6244,7 +6355,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="11" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="F20" s="12">
         <v>64.040000000000006</v>
@@ -6278,7 +6389,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F21" s="12">
         <v>65.040000000000006</v>
@@ -6345,44 +6456,26 @@
     <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="E23" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="11" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="F24" s="14">
         <v>63.35</v>
@@ -6416,7 +6509,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="11" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F25" s="14">
         <v>62.02</v>
@@ -6450,7 +6543,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="11" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="F26" s="14">
         <v>64.48</v>
@@ -6484,7 +6577,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F27" s="14">
         <v>65.099999999999994</v>
@@ -6552,44 +6645,26 @@
     <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M29" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="E29" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="11" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="F30" s="14">
         <v>61.58</v>
@@ -6623,7 +6698,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="11" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F31" s="14">
         <v>60.65</v>
@@ -6657,7 +6732,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="11" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="F32" s="14">
         <v>61.94</v>
@@ -6691,7 +6766,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33" s="14">
         <v>63.69</v>
@@ -6727,115 +6802,107 @@
       <c r="E34" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
+      <c r="F34" s="14">
+        <v>64.56</v>
+      </c>
+      <c r="G34" s="14">
+        <v>46.89</v>
+      </c>
+      <c r="H34" s="14">
+        <v>59.47</v>
+      </c>
+      <c r="I34" s="14">
+        <v>70</v>
+      </c>
+      <c r="J34" s="14">
+        <v>77</v>
+      </c>
+      <c r="K34" s="14">
+        <v>69</v>
+      </c>
+      <c r="L34" s="14">
+        <v>65</v>
+      </c>
+      <c r="M34" s="13">
+        <v>2269</v>
+      </c>
+      <c r="N34" s="13">
+        <v>25600</v>
+      </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J36" s="2"/>
+      <c r="K36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M35" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C36" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="14">
-        <v>62.57</v>
-      </c>
-      <c r="G36" s="14">
-        <v>39.86</v>
-      </c>
-      <c r="H36" s="14">
-        <v>63.24</v>
-      </c>
-      <c r="I36" s="14">
-        <v>68.33</v>
-      </c>
-      <c r="J36" s="14">
-        <v>72</v>
-      </c>
-      <c r="K36" s="14">
-        <v>69</v>
-      </c>
-      <c r="L36" s="14">
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C37" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M36" s="13">
-        <v>2587</v>
-      </c>
-      <c r="N36" s="13">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="11" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="F37" s="14">
-        <v>61.33</v>
+        <v>62.57</v>
       </c>
       <c r="G37" s="14">
-        <v>40.020000000000003</v>
+        <v>39.86</v>
       </c>
       <c r="H37" s="14">
-        <v>60.41</v>
+        <v>63.24</v>
       </c>
       <c r="I37" s="14">
-        <v>65.56</v>
+        <v>68.33</v>
       </c>
       <c r="J37" s="14">
+        <v>72</v>
+      </c>
+      <c r="K37" s="14">
         <v>69</v>
       </c>
-      <c r="K37" s="14">
-        <v>68</v>
-      </c>
       <c r="L37" s="14">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M37" s="13">
-        <v>5325</v>
+        <v>2587</v>
       </c>
       <c r="N37" s="13">
         <v>3000</v>
@@ -6845,313 +6912,557 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="11" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="F38" s="14">
-        <v>63.58</v>
+        <v>61.33</v>
       </c>
       <c r="G38" s="14">
-        <v>50.12</v>
+        <v>40.020000000000003</v>
       </c>
       <c r="H38" s="14">
-        <v>51.94</v>
+        <v>60.41</v>
       </c>
       <c r="I38" s="14">
-        <v>69.44</v>
+        <v>65.56</v>
       </c>
       <c r="J38" s="14">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K38" s="14">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L38" s="14">
         <v>65</v>
       </c>
       <c r="M38" s="13">
-        <v>2341</v>
+        <v>5325</v>
       </c>
       <c r="N38" s="13">
-        <v>700</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="11" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="F39" s="14">
-        <v>65.5</v>
+        <v>63.58</v>
       </c>
       <c r="G39" s="14">
-        <v>46.12</v>
+        <v>50.12</v>
       </c>
       <c r="H39" s="14">
-        <v>62.53</v>
+        <v>51.94</v>
       </c>
       <c r="I39" s="14">
-        <v>73.33</v>
+        <v>69.44</v>
       </c>
       <c r="J39" s="14">
         <v>78</v>
       </c>
       <c r="K39" s="14">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L39" s="14">
         <v>65</v>
       </c>
       <c r="M39" s="13">
-        <v>3434</v>
+        <v>2341</v>
       </c>
       <c r="N39" s="13">
-        <v>36000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="11" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="F40" s="14">
-        <v>65.2</v>
+        <v>65.5</v>
       </c>
       <c r="G40" s="14">
-        <v>47.45</v>
+        <v>46.12</v>
       </c>
       <c r="H40" s="14">
-        <v>58.97</v>
+        <v>62.53</v>
       </c>
       <c r="I40" s="14">
-        <v>72.78</v>
+        <v>73.33</v>
       </c>
       <c r="J40" s="14">
         <v>78</v>
       </c>
       <c r="K40" s="14">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L40" s="14">
         <v>65</v>
       </c>
       <c r="M40" s="13">
-        <v>2628</v>
+        <v>3434</v>
       </c>
       <c r="N40" s="13">
-        <v>3200</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="E41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="14">
+        <v>65.2</v>
+      </c>
+      <c r="G41" s="14">
+        <v>47.45</v>
+      </c>
+      <c r="H41" s="14">
+        <v>58.97</v>
+      </c>
+      <c r="I41" s="14">
+        <v>72.78</v>
+      </c>
+      <c r="J41" s="14">
+        <v>78</v>
+      </c>
+      <c r="K41" s="14">
+        <v>69</v>
+      </c>
+      <c r="L41" s="14">
+        <v>65</v>
+      </c>
+      <c r="M41" s="13">
+        <v>2628</v>
+      </c>
+      <c r="N41" s="13">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J42" s="2"/>
+      <c r="K42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M41" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N41" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C42" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="14">
-        <v>60.94</v>
-      </c>
-      <c r="G42" s="14">
-        <v>48.19</v>
-      </c>
-      <c r="H42" s="14">
-        <v>58.13</v>
-      </c>
-      <c r="I42" s="14">
-        <v>63.33</v>
-      </c>
-      <c r="J42" s="14">
-        <v>71</v>
-      </c>
-      <c r="K42" s="14">
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C43" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L42" s="14">
-        <v>61</v>
-      </c>
-      <c r="M42" s="13">
-        <v>2984</v>
-      </c>
-      <c r="N42" s="13">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="11" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="F43" s="14">
-        <v>56.49</v>
+        <v>60.94</v>
       </c>
       <c r="G43" s="14">
-        <v>35.520000000000003</v>
+        <v>48.19</v>
       </c>
       <c r="H43" s="14">
-        <v>54.85</v>
+        <v>58.13</v>
       </c>
       <c r="I43" s="14">
-        <v>60.56</v>
+        <v>63.33</v>
       </c>
       <c r="J43" s="14">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K43" s="14">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L43" s="14">
         <v>61</v>
       </c>
       <c r="M43" s="13">
-        <v>3703</v>
+        <v>2984</v>
       </c>
       <c r="N43" s="13">
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="11" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="F44" s="14">
-        <v>57.48</v>
+        <v>56.49</v>
       </c>
       <c r="G44" s="14">
-        <v>29.44</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="H44" s="14">
-        <v>55.19</v>
+        <v>54.85</v>
       </c>
       <c r="I44" s="14">
-        <v>67.22</v>
+        <v>60.56</v>
       </c>
       <c r="J44" s="14">
         <v>70</v>
       </c>
       <c r="K44" s="14">
+        <v>57</v>
+      </c>
+      <c r="L44" s="14">
         <v>61</v>
       </c>
-      <c r="L44" s="14">
-        <v>62</v>
-      </c>
       <c r="M44" s="13">
-        <v>1690</v>
+        <v>3703</v>
       </c>
       <c r="N44" s="13">
-        <v>700</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="11" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="F45" s="14">
-        <v>64.540000000000006</v>
+        <v>57.48</v>
       </c>
       <c r="G45" s="14">
-        <v>38.99</v>
+        <v>29.44</v>
       </c>
       <c r="H45" s="14">
-        <v>65.14</v>
+        <v>55.19</v>
       </c>
       <c r="I45" s="14">
-        <v>71.11</v>
+        <v>67.22</v>
       </c>
       <c r="J45" s="14">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K45" s="14">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L45" s="14">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M45" s="13">
-        <v>3133</v>
+        <v>1690</v>
       </c>
       <c r="N45" s="13">
-        <v>36000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="11" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="F46" s="14">
-        <v>63.6</v>
+        <v>64.540000000000006</v>
       </c>
       <c r="G46" s="14">
-        <v>39.06</v>
+        <v>38.99</v>
       </c>
       <c r="H46" s="14">
-        <v>63.42</v>
+        <v>65.14</v>
       </c>
       <c r="I46" s="14">
         <v>71.11</v>
       </c>
       <c r="J46" s="14">
+        <v>78</v>
+      </c>
+      <c r="K46" s="14">
+        <v>69</v>
+      </c>
+      <c r="L46" s="14">
+        <v>65</v>
+      </c>
+      <c r="M46" s="13">
+        <v>3133</v>
+      </c>
+      <c r="N46" s="13">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="14">
+        <v>63.6</v>
+      </c>
+      <c r="G47" s="14">
+        <v>39.06</v>
+      </c>
+      <c r="H47" s="14">
+        <v>63.42</v>
+      </c>
+      <c r="I47" s="14">
+        <v>71.11</v>
+      </c>
+      <c r="J47" s="14">
         <v>77</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K47" s="14">
         <v>68</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L47" s="14">
         <v>63</v>
       </c>
-      <c r="M46" s="13">
+      <c r="M47" s="13">
         <v>1093</v>
       </c>
-      <c r="N46" s="13">
+      <c r="N47" s="13">
         <v>12800</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N47:N1048576 N1:N34">
-    <cfRule type="dataBar" priority="17">
+  <mergeCells count="4">
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E17:N17"/>
+    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E29:N29"/>
+  </mergeCells>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6B430648-30FD-2F43-B0FB-67B5808111BF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36:F47">
+    <cfRule type="colorScale" priority="253">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G47">
+    <cfRule type="colorScale" priority="255">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H47">
+    <cfRule type="colorScale" priority="257">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I47">
+    <cfRule type="colorScale" priority="259">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:J47">
+    <cfRule type="colorScale" priority="261">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:K47">
+    <cfRule type="colorScale" priority="263">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L36:L47">
+    <cfRule type="colorScale" priority="265">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N36:N47">
+    <cfRule type="dataBar" priority="281">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B763E76D-7ABC-D048-B839-E8E2987908F8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M36:M47">
+    <cfRule type="dataBar" priority="283">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B05690F4-AAB4-874C-B581-AC91D545CC71}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F16 F18:F22 F24:F28 F30:F35">
+    <cfRule type="colorScale" priority="284">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G16 G7 G18:G22 G24:G28 G30:G35">
+    <cfRule type="colorScale" priority="286">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H16 H18:H22 H24:H28 H30:H35">
+    <cfRule type="colorScale" priority="289">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I16 I7 I18:I22 I24:I28 I30:I35">
+    <cfRule type="colorScale" priority="291">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J16 J7 J18:J22 J24:J28 J30:J35">
+    <cfRule type="colorScale" priority="294">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K16 K7 K18:K22 K24:K28 K30:K35">
+    <cfRule type="colorScale" priority="297">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L16 L7 L18:L22 L24:L28 L30:L35">
+    <cfRule type="colorScale" priority="300">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N48:N1048576 N9:N16 N1:N7 N18:N22 N24:N28 N30:N35">
+    <cfRule type="dataBar" priority="551">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7164,8 +7475,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M47:M1048576 M1:M34">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="M48:M1048576 M9:M16 M1:M7 M18:M22 M24:M28 M30:M35">
+    <cfRule type="dataBar" priority="555">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7178,290 +7489,80 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11">
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6B430648-30FD-2F43-B0FB-67B5808111BF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F46">
-    <cfRule type="colorScale" priority="253">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35:G46">
-    <cfRule type="colorScale" priority="255">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H46">
-    <cfRule type="colorScale" priority="257">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:I46">
-    <cfRule type="colorScale" priority="259">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:J46">
-    <cfRule type="colorScale" priority="261">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35:K46">
-    <cfRule type="colorScale" priority="263">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35:L46">
-    <cfRule type="colorScale" priority="265">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N35:N46">
-    <cfRule type="dataBar" priority="281">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B763E76D-7ABC-D048-B839-E8E2987908F8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M35:M46">
-    <cfRule type="dataBar" priority="283">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B05690F4-AAB4-874C-B581-AC91D545CC71}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F34">
-    <cfRule type="colorScale" priority="284">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G34 G8">
-    <cfRule type="colorScale" priority="286">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H34">
-    <cfRule type="colorScale" priority="289">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I34 I8">
-    <cfRule type="colorScale" priority="291">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J34 J8">
-    <cfRule type="colorScale" priority="294">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K34 K8">
-    <cfRule type="colorScale" priority="297">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L34 L8">
-    <cfRule type="colorScale" priority="300">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F34">
-    <cfRule type="colorScale" priority="303">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G34">
-    <cfRule type="colorScale" priority="305">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H34">
-    <cfRule type="colorScale" priority="307">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I34">
-    <cfRule type="colorScale" priority="309">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J34">
-    <cfRule type="colorScale" priority="311">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K34">
-    <cfRule type="colorScale" priority="313">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L34">
-    <cfRule type="colorScale" priority="315">
+  <conditionalFormatting sqref="F9:F16 F7 F18:F22 F24:F28 F30:F35">
+    <cfRule type="colorScale" priority="564">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G16 G7 G18:G22 G24:G28 G30:G35">
+    <cfRule type="colorScale" priority="566">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H16 H7 H18:H22 H24:H28 H30:H35">
+    <cfRule type="colorScale" priority="568">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I16 I7 I18:I22 I24:I28 I30:I35">
+    <cfRule type="colorScale" priority="570">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J16 J7 J18:J22 J24:J28 J30:J35">
+    <cfRule type="colorScale" priority="572">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:K16 K7 K18:K22 K24:K28 K30:K35">
+    <cfRule type="colorScale" priority="574">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L16 L7 L18:L22 L24:L28 L30:L35">
+    <cfRule type="colorScale" priority="576">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7476,32 +7577,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{26DB2F22-3398-B340-A28D-A3E5E68B6CFD}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>N47:N1048576 N1:N34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9DE54942-91D0-CB47-A352-3755C31DF088}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>M47:M1048576 M1:M34</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6B430648-30FD-2F43-B0FB-67B5808111BF}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -7526,7 +7601,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N35:N46</xm:sqref>
+          <xm:sqref>N36:N47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B05690F4-AAB4-874C-B581-AC91D545CC71}">
@@ -7539,7 +7614,33 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M35:M46</xm:sqref>
+          <xm:sqref>M36:M47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{26DB2F22-3398-B340-A28D-A3E5E68B6CFD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N48:N1048576 N9:N16 N1:N7 N18:N22 N24:N28 N30:N35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9DE54942-91D0-CB47-A352-3755C31DF088}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M48:M1048576 M9:M16 M1:M7 M18:M22 M24:M28 M30:M35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7548,6 +7649,264 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A172FB-53F2-7A40-B43B-73E7E029C47F}">
+  <dimension ref="F3:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F3" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="43">
+        <f>MIS_results!F9</f>
+        <v>62</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="43">
+        <f>MIS_results!F10</f>
+        <v>58.93</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="43">
+        <f>MIS_results!F11</f>
+        <v>59.1</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="43">
+        <f>MIS_results!F12</f>
+        <v>62.8</v>
+      </c>
+      <c r="H10" s="43">
+        <f>MIS_results!F18</f>
+        <v>63.2</v>
+      </c>
+      <c r="I10" s="18">
+        <f>MIS_results!F24</f>
+        <v>63.35</v>
+      </c>
+      <c r="J10" s="18">
+        <f>MIS_results!F30</f>
+        <v>61.58</v>
+      </c>
+    </row>
+    <row r="11" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="43">
+        <f>MIS_results!F13</f>
+        <v>62.59</v>
+      </c>
+      <c r="H11" s="43">
+        <f>MIS_results!F19</f>
+        <v>62.31</v>
+      </c>
+      <c r="I11" s="18">
+        <f>MIS_results!F25</f>
+        <v>62.02</v>
+      </c>
+      <c r="J11" s="18">
+        <f>MIS_results!F31</f>
+        <v>60.65</v>
+      </c>
+    </row>
+    <row r="12" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="43">
+        <f>MIS_results!F14</f>
+        <v>64.290000000000006</v>
+      </c>
+      <c r="H12" s="43">
+        <f>MIS_results!F20</f>
+        <v>64.040000000000006</v>
+      </c>
+      <c r="I12" s="18">
+        <f>MIS_results!F26</f>
+        <v>64.48</v>
+      </c>
+      <c r="J12" s="18">
+        <f>MIS_results!F32</f>
+        <v>61.94</v>
+      </c>
+    </row>
+    <row r="13" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="43">
+        <f>MIS_results!F15</f>
+        <v>65.05</v>
+      </c>
+      <c r="H13" s="43">
+        <f>MIS_results!F21</f>
+        <v>65.040000000000006</v>
+      </c>
+      <c r="I13" s="18">
+        <f>MIS_results!F27</f>
+        <v>65.099999999999994</v>
+      </c>
+      <c r="J13" s="18">
+        <f>MIS_results!F33</f>
+        <v>63.69</v>
+      </c>
+    </row>
+    <row r="14" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="43">
+        <f>MIS_results!F16</f>
+        <v>65.040000000000006</v>
+      </c>
+      <c r="H14" s="43">
+        <f>MIS_results!F22</f>
+        <v>64.180000000000007</v>
+      </c>
+      <c r="I14" s="18">
+        <f>MIS_results!F28</f>
+        <v>65.010000000000005</v>
+      </c>
+      <c r="J14" s="18">
+        <f>MIS_results!F34</f>
+        <v>64.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:J3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H7:J7 G8:J14">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:J5">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",G4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",G4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:J14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:J14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5353A2-5AB2-F84D-BC82-3A9A86144038}">
   <dimension ref="E4:J24"/>
   <sheetViews>

--- a/performances.xlsx
+++ b/performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malteebner/Library/Mobile Documents/com~apple~CloudDocs/Master ETIT/10. Semester/Forschungsarbeit/Code Forschungsarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D8471D-AD3E-DD44-BDBC-23ED8E4B112C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A40A14-B59B-804E-8A7F-B97B66889AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{0C047C73-2AED-574F-B05A-862A7DD3D487}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="16680" firstSheet="3" activeTab="6" xr2:uid="{0C047C73-2AED-574F-B05A-862A7DD3D487}"/>
   </bookViews>
   <sheets>
     <sheet name="refinery_results" sheetId="3" r:id="rId1"/>
@@ -329,7 +329,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -506,7 +506,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -532,7 +532,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -549,13 +548,32 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,40 +583,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -611,47 +610,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2A5B7532-101E-0048-9294-1F4BBB5EE65C}"/>
     <cellStyle name="Per cent 2" xfId="2" xr:uid="{6D68009B-0FD1-C246-B7DB-7668D6D40F99}"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1045,22 +1004,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>72</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -1080,7 +1039,7 @@
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>37</v>
       </c>
       <c r="K2" s="4">
@@ -1090,7 +1049,7 @@
         <v>19</v>
       </c>
       <c r="M2" s="5">
-        <f>N2*O2</f>
+        <f t="shared" ref="M2:M12" si="0">N2*O2</f>
         <v>1809933023</v>
       </c>
       <c r="N2" s="5">
@@ -1122,7 +1081,7 @@
         <v>18</v>
       </c>
       <c r="M3" s="5">
-        <f>N3*O3</f>
+        <f t="shared" si="0"/>
         <v>1958508545</v>
       </c>
       <c r="N3" s="5">
@@ -1154,7 +1113,7 @@
         <v>17</v>
       </c>
       <c r="M4" s="5">
-        <f>N4*O4</f>
+        <f t="shared" si="0"/>
         <v>1690882315</v>
       </c>
       <c r="N4" s="5">
@@ -1187,7 +1146,7 @@
         <v>16</v>
       </c>
       <c r="M5" s="5">
-        <f>N5*O5</f>
+        <f t="shared" si="0"/>
         <v>1898676864</v>
       </c>
       <c r="N5" s="5">
@@ -1202,7 +1161,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="7">
-        <f t="shared" ref="C6:C10" si="0">IF(D6*E6&gt;0,D6*E6,"")</f>
+        <f t="shared" ref="C6:C10" si="1">IF(D6*E6&gt;0,D6*E6,"")</f>
         <v>845264556</v>
       </c>
       <c r="D6" s="7">
@@ -1224,7 +1183,7 @@
         <v>15</v>
       </c>
       <c r="M6" s="5">
-        <f>N6*O6</f>
+        <f t="shared" si="0"/>
         <v>1094019216</v>
       </c>
       <c r="N6" s="5">
@@ -1239,7 +1198,7 @@
         <v>46</v>
       </c>
       <c r="C7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1081099264</v>
       </c>
       <c r="D7" s="7">
@@ -1261,7 +1220,7 @@
         <v>14</v>
       </c>
       <c r="M7" s="5">
-        <f>N7*O7</f>
+        <f t="shared" si="0"/>
         <v>2510752680</v>
       </c>
       <c r="N7" s="5">
@@ -1276,7 +1235,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>813981250</v>
       </c>
       <c r="D8" s="7">
@@ -1298,7 +1257,7 @@
         <v>13</v>
       </c>
       <c r="M8" s="5">
-        <f>N8*O8</f>
+        <f t="shared" si="0"/>
         <v>1889765721</v>
       </c>
       <c r="N8" s="5">
@@ -1313,7 +1272,7 @@
         <v>48</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>790309738</v>
       </c>
       <c r="D9" s="7">
@@ -1335,7 +1294,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="5">
-        <f>N9*O9</f>
+        <f t="shared" si="0"/>
         <v>1841679615</v>
       </c>
       <c r="N9" s="5">
@@ -1350,7 +1309,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>800762800</v>
       </c>
       <c r="D10" s="7">
@@ -1372,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="M10" s="5">
-        <f>N10*O10</f>
+        <f t="shared" si="0"/>
         <v>1633602876</v>
       </c>
       <c r="N10" s="5">
@@ -1383,7 +1342,7 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>39</v>
       </c>
       <c r="K11" s="4">
@@ -1393,7 +1352,7 @@
         <v>10</v>
       </c>
       <c r="M11" s="5">
-        <f>N11*O11</f>
+        <f t="shared" si="0"/>
         <v>2438698392</v>
       </c>
       <c r="N11" s="5">
@@ -1430,7 +1389,7 @@
         <v>9</v>
       </c>
       <c r="M12" s="5">
-        <f>N12*O12</f>
+        <f t="shared" si="0"/>
         <v>930764848</v>
       </c>
       <c r="N12" s="5">
@@ -1573,7 +1532,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1678,7 +1637,7 @@
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="38" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2645,13 +2604,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C2" s="18" t="s">
@@ -2854,10 +2813,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G3">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2894,69 +2853,69 @@
   <dimension ref="B1:W53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.1640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="50" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="50" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.1640625" customWidth="1"/>
     <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B1" s="50"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="20"/>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="46" t="s">
         <v>72</v>
       </c>
       <c r="L1" s="20"/>
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B2" s="52"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="34"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="17" t="s">
         <v>63</v>
       </c>
@@ -2979,114 +2938,114 @@
       <c r="T2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="U2" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="31" t="s">
         <v>36</v>
       </c>
       <c r="W2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="50"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="20"/>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <v>-2425</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>73</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="37">
         <v>8525</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="26">
         <v>0</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="26">
         <v>0</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="35"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="17"/>
       <c r="N3" s="20"/>
       <c r="O3" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="29">
         <v>2468.96</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="Q3" s="29">
         <v>61.58</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="29">
         <v>12251.04</v>
       </c>
-      <c r="S3" s="30">
+      <c r="S3" s="29">
         <v>32</v>
       </c>
-      <c r="T3" s="30">
+      <c r="T3" s="29">
         <v>30</v>
       </c>
-      <c r="U3" s="31">
+      <c r="U3" s="30">
         <v>6849</v>
       </c>
-      <c r="V3" s="29">
+      <c r="V3" s="28">
         <v>7000</v>
       </c>
       <c r="W3" s="19"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="55"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <v>-10125</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <v>53</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="37">
         <v>12370</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="27">
         <v>-26</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="27">
         <v>-38</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="36"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="35"/>
       <c r="M4" s="17"/>
       <c r="N4" s="20"/>
       <c r="O4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="27">
         <v>3973.87</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="27">
         <v>62.51</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="27">
         <v>10097.129999999999</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="27">
         <v>28</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="27">
         <v>30</v>
       </c>
-      <c r="U4" s="26">
+      <c r="U4" s="25">
         <v>3082</v>
       </c>
-      <c r="V4" s="29">
+      <c r="V4" s="28">
         <v>5000</v>
       </c>
       <c r="W4" s="19" t="s">
@@ -3094,113 +3053,113 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="55"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <v>2250</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <v>68</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="37">
         <v>9370</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="27">
         <v>21</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="27">
         <v>27</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="26">
         <v>2308</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="27">
         <v>7000</v>
       </c>
-      <c r="L5" s="36"/>
+      <c r="L5" s="35"/>
       <c r="M5" s="17"/>
       <c r="N5" s="20"/>
       <c r="O5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="27">
         <v>-2011</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="27">
         <v>51.01</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="27">
         <v>143205.5</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="27">
         <v>15</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="27">
         <v>4</v>
       </c>
-      <c r="U5" s="26">
+      <c r="U5" s="25">
         <v>5215</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="28">
         <v>3000</v>
       </c>
       <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="55"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="27">
         <v>-125</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="27">
         <v>72</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="37">
         <v>9595</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="27">
         <v>19</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="27">
         <v>18</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <v>2955</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="27">
         <v>3000</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="17"/>
       <c r="N6" s="20"/>
       <c r="O6" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="27">
         <v>1210.71</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="27">
         <v>60.37</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="27">
         <v>10559.29</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="27">
         <v>16</v>
       </c>
-      <c r="T6" s="28">
+      <c r="T6" s="27">
         <v>14</v>
       </c>
-      <c r="U6" s="26">
+      <c r="U6" s="25">
         <v>5212</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="28">
         <v>3000</v>
       </c>
       <c r="W6" s="19" t="s">
@@ -3208,113 +3167,113 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="55"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>2140</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>63</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="37">
         <v>9480</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="27">
         <v>13</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="27">
         <v>23</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <v>1765</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="27">
         <v>700</v>
       </c>
-      <c r="L7" s="36"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="17"/>
       <c r="N7" s="20"/>
       <c r="O7" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="27">
         <v>2991.78</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="27">
         <v>65.790000000000006</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="27">
         <v>10128.219999999999</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="27">
         <v>26</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="27">
         <v>31</v>
       </c>
-      <c r="U7" s="26">
+      <c r="U7" s="25">
         <v>1383</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7" s="28">
         <v>700</v>
       </c>
       <c r="W7" s="19"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="55"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <v>4175</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>68</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="37">
         <v>9145</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="27">
         <v>28</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="27">
         <v>37</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="26">
         <v>2081</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="27">
         <v>1800000</v>
       </c>
-      <c r="L8" s="36"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="17"/>
       <c r="N8" s="20"/>
       <c r="O8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="27">
         <v>2911.86</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="27">
         <v>59</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="27">
         <v>10258.14</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="27">
         <v>16</v>
       </c>
-      <c r="T8" s="28">
+      <c r="T8" s="27">
         <v>26</v>
       </c>
-      <c r="U8" s="26">
+      <c r="U8" s="25">
         <v>1783</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="28">
         <v>700</v>
       </c>
       <c r="W8" s="19" t="s">
@@ -3322,117 +3281,117 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="55"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <v>4760</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>68</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="37">
         <v>9260</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="27">
         <v>30</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="27">
         <v>42</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="26">
         <v>2253</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="27">
         <v>25600</v>
       </c>
-      <c r="L9" s="36"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="17"/>
       <c r="N9" s="20"/>
       <c r="O9" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="27">
         <v>5314.44</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="27">
         <v>58.95</v>
       </c>
-      <c r="R9" s="28">
+      <c r="R9" s="27">
         <v>9755.56</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="27">
         <v>24</v>
       </c>
-      <c r="T9" s="28">
+      <c r="T9" s="27">
         <v>35</v>
       </c>
-      <c r="U9" s="26">
+      <c r="U9" s="25">
         <v>3955</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9" s="28">
         <v>1800000</v>
       </c>
       <c r="W9" s="19"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="52"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="34"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="17"/>
       <c r="N10" s="20"/>
       <c r="O10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="29"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="28"/>
       <c r="W10" s="19"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="55"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="20"/>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <v>3760</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <v>68</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="37">
         <v>9560</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="27">
         <v>27</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <v>38</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="26">
         <v>2450</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="27">
         <v>7000</v>
       </c>
-      <c r="L11" s="36"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="17" t="s">
         <v>64</v>
       </c>
@@ -3458,232 +3417,232 @@
       <c r="U11" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="V11" s="32" t="s">
+      <c r="V11" s="31" t="s">
         <v>36</v>
       </c>
       <c r="W11" s="19"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="20"/>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <v>3710</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <v>65</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <v>9310</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="27">
         <v>23</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="27">
         <v>33</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="26">
         <v>1881</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="27">
         <v>3000</v>
       </c>
-      <c r="L12" s="36"/>
+      <c r="L12" s="35"/>
       <c r="N12" s="20"/>
       <c r="O12" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="29"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="28"/>
       <c r="W12" s="19"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="55"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="20"/>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <v>4060</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="27">
         <v>69</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="37">
         <v>9310</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>29</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="27">
         <v>39</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="26">
         <v>1872</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="27">
         <v>700</v>
       </c>
-      <c r="L13" s="36"/>
+      <c r="L13" s="35"/>
       <c r="N13" s="20"/>
       <c r="O13" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="29"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="28"/>
       <c r="W13" s="19"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="27">
         <v>4350</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <v>69</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="37">
         <v>9320</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="27">
         <v>31</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="27">
         <v>40</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="26">
         <v>2900</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="27">
         <v>1800000</v>
       </c>
-      <c r="L14" s="36"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="17"/>
       <c r="N14" s="20"/>
       <c r="O14" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="29"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="28"/>
       <c r="W14" s="19"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="55"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <v>1565</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="27">
         <v>69</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="37">
         <v>9705</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="27">
         <v>20</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="27">
         <v>27</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="26">
         <v>222</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="27">
         <v>25600</v>
       </c>
-      <c r="L15" s="36"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="17"/>
       <c r="N15" s="20"/>
       <c r="O15" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="29"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="28"/>
       <c r="W15" s="19"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="52"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="20"/>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="34"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="33"/>
       <c r="N16" s="20"/>
       <c r="O16" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="29"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="28"/>
       <c r="W16" s="19"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="55"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="26">
         <v>2734.69</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="26">
         <v>58.52</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="37">
         <v>10335.31</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="26">
         <v>16</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="26">
         <v>23</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="27">
         <v>2541</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="27">
         <v>4000</v>
       </c>
-      <c r="L17" s="37"/>
+      <c r="L17" s="36"/>
       <c r="M17" s="17" t="s">
         <v>67</v>
       </c>
@@ -3709,229 +3668,229 @@
       <c r="U17" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="V17" s="32" t="s">
+      <c r="V17" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <v>1283.6400000000001</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <v>61.15</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="37">
         <v>10636.36</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="27">
         <v>16</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="27">
         <v>18</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="26">
         <v>5227</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="27">
         <v>3000</v>
       </c>
-      <c r="L18" s="36"/>
+      <c r="L18" s="35"/>
       <c r="M18" s="17"/>
       <c r="N18" s="20"/>
       <c r="O18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="29"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="28"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="55"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="20"/>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="27">
         <v>3024.68</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="27">
         <v>62.6</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="37">
         <v>10345.32</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="27">
         <v>19</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="27">
         <v>32</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="26">
         <v>1778</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="27">
         <v>700</v>
       </c>
-      <c r="L19" s="36"/>
+      <c r="L19" s="35"/>
       <c r="M19" s="17"/>
       <c r="N19" s="20"/>
       <c r="O19" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="29"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="28"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <v>6288.33</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="27">
         <v>59.88</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="37">
         <v>9781.67</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <v>29</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="27">
         <v>42</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="26">
         <v>2379</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="27">
         <v>900000</v>
       </c>
-      <c r="L20" s="36"/>
+      <c r="L20" s="35"/>
       <c r="M20" s="17"/>
       <c r="N20" s="20"/>
       <c r="O20" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="29"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="28"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="55"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="20"/>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="27">
         <v>5929.52</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="27">
         <v>62.95</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="37">
         <v>10240.48</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="27">
         <v>34</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="27">
         <v>45</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="26">
         <v>2995</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="27">
         <v>25600</v>
       </c>
-      <c r="L21" s="36"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="17"/>
       <c r="N21" s="20"/>
       <c r="O21" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="29"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="28"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="52"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="20"/>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="34"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="17"/>
       <c r="N22" s="20"/>
       <c r="O22" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="29"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="28"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="55"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="27">
         <v>2582.06</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="27">
         <v>65.16</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="37">
         <v>9337.94</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="27">
         <v>20</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="27">
         <v>25</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="26">
         <v>2119</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="27">
         <v>4000</v>
       </c>
-      <c r="L23" s="36"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="17" t="s">
         <v>68</v>
       </c>
@@ -3957,875 +3916,876 @@
       <c r="U23" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="V23" s="32" t="s">
+      <c r="V23" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="55"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="20"/>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="27">
         <v>759.18</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <v>66.94</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="37">
         <v>9660.82</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="27">
         <v>18</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="27">
         <v>14</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="26">
         <v>4723</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="27">
         <v>3000</v>
       </c>
-      <c r="L24" s="36"/>
+      <c r="L24" s="35"/>
       <c r="N24" s="20"/>
       <c r="O24" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="29"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="28"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="55"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="20"/>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="27">
         <v>347.96</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="27">
         <v>70</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="37">
         <v>9672.0400000000009</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="27">
         <v>20</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="27">
         <v>17</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="26">
         <v>2667</v>
       </c>
-      <c r="K25" s="28">
+      <c r="K25" s="27">
         <v>700</v>
       </c>
-      <c r="L25" s="36"/>
+      <c r="L25" s="35"/>
       <c r="N25" s="20"/>
       <c r="O25" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="29"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="28"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="55"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="20"/>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <v>4869.4799999999996</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="27">
         <v>60.96</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="37">
         <v>9700.52</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="27">
         <v>26</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="27">
         <v>32</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="26">
         <v>2111</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K26" s="27">
         <v>900000</v>
       </c>
-      <c r="L26" s="36"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="17"/>
       <c r="N26" s="20"/>
       <c r="O26" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="29"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="28"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="55"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="20"/>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="55">
         <v>255.88</v>
       </c>
-      <c r="F27" s="62">
+      <c r="F27" s="55">
         <v>64.86</v>
       </c>
-      <c r="G27" s="63">
+      <c r="G27" s="56">
         <v>9874.1200000000008</v>
       </c>
-      <c r="H27" s="62">
+      <c r="H27" s="55">
         <v>9</v>
       </c>
-      <c r="I27" s="62">
+      <c r="I27" s="55">
         <v>15</v>
       </c>
-      <c r="J27" s="61">
+      <c r="J27" s="54">
         <v>1217</v>
       </c>
-      <c r="K27" s="62">
+      <c r="K27" s="55">
         <v>256000</v>
       </c>
-      <c r="L27" s="36"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="17"/>
       <c r="N27" s="20"/>
       <c r="O27" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="29"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="28"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="55"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="20"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="36"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="17"/>
       <c r="N28" s="20"/>
       <c r="O28" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="29"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="28"/>
     </row>
     <row r="29" spans="2:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="50"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="20"/>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="48" t="s">
+      <c r="H29" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="K29" s="50" t="s">
+      <c r="K29" s="46" t="s">
         <v>72</v>
       </c>
       <c r="N29" s="20"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="29"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="28"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="51"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="20"/>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="36"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="35"/>
       <c r="M30" s="19"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="55"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="20"/>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="27">
         <v>1097.22</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="27">
         <v>65.59</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="37">
         <v>9712.7800000000007</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="27">
         <v>15</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="27">
         <v>19</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J31" s="26">
         <v>986</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31" s="27">
         <v>4000</v>
       </c>
-      <c r="L31" s="36"/>
+      <c r="L31" s="35"/>
       <c r="M31" s="19"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="55"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="20"/>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="27">
         <v>163.29</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="27">
         <v>67.03</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="37">
         <v>9691.7099999999991</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="27">
         <v>18</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="27">
         <v>9</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J32" s="26">
         <v>3034</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="27">
         <v>3000</v>
       </c>
-      <c r="L32" s="36"/>
+      <c r="L32" s="35"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="55"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="20"/>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="27">
         <v>2812.33</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="27">
         <v>64.88</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="37">
         <v>9517.67</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="27">
         <v>19</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="27">
         <v>28</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J33" s="26">
         <v>1789</v>
       </c>
-      <c r="K33" s="28">
+      <c r="K33" s="27">
         <v>700</v>
       </c>
-      <c r="L33" s="36"/>
+      <c r="L33" s="35"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="55"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="20"/>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="27">
         <v>4184.3599999999997</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="27">
         <v>68.41</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="37">
         <v>9325.64</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="27">
         <v>29</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="27">
         <v>38</v>
       </c>
-      <c r="J34" s="27">
+      <c r="J34" s="26">
         <v>1618</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K34" s="27">
         <v>900000</v>
       </c>
-      <c r="L34" s="36"/>
+      <c r="L34" s="35"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="55"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="20"/>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="27">
         <v>3734.99</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="27">
         <v>63.76</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="37">
         <v>9655.01</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="27">
         <v>22</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="27">
         <v>33</v>
       </c>
-      <c r="J35" s="27">
+      <c r="J35" s="26">
         <v>2628</v>
       </c>
-      <c r="K35" s="28">
+      <c r="K35" s="27">
         <v>25600</v>
       </c>
-      <c r="L35" s="34"/>
+      <c r="L35" s="33"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="52"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="20"/>
-      <c r="D36" s="58" t="s">
+      <c r="D36" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="36"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="35"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="55"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="20"/>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="27">
         <v>2739.48</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="27">
         <v>65.31</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="37">
         <v>9790.52</v>
       </c>
-      <c r="H37" s="28">
+      <c r="H37" s="27">
         <v>18</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="27">
         <v>32</v>
       </c>
-      <c r="J37" s="27">
+      <c r="J37" s="26">
         <v>1111</v>
       </c>
-      <c r="K37" s="28">
+      <c r="K37" s="27">
         <v>4000</v>
       </c>
-      <c r="L37" s="36"/>
+      <c r="L37" s="35"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="55"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="20"/>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="27">
         <v>2764.36</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="27">
         <v>64.34</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="37">
         <v>9845.64</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="27">
         <v>19</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38" s="27">
         <v>29</v>
       </c>
-      <c r="J38" s="27">
+      <c r="J38" s="26">
         <v>1362</v>
       </c>
-      <c r="K38" s="28">
+      <c r="K38" s="27">
         <v>2500</v>
       </c>
-      <c r="L38" s="36"/>
+      <c r="L38" s="35"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="55"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="20"/>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="27">
         <v>2735.36</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="27">
         <v>64.64</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="37">
         <v>9564.64</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="27">
         <v>20</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="27">
         <v>26</v>
       </c>
-      <c r="J39" s="27">
+      <c r="J39" s="26">
         <v>1515</v>
       </c>
-      <c r="K39" s="28">
+      <c r="K39" s="27">
         <v>700</v>
       </c>
-      <c r="L39" s="36"/>
+      <c r="L39" s="35"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="55"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="20"/>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="27">
         <v>4047.22</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="27">
         <v>66.36</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40" s="37">
         <v>9402.7800000000007</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="27">
         <v>25</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="27">
         <v>37</v>
       </c>
-      <c r="J40" s="27">
+      <c r="J40" s="26">
         <v>2310</v>
       </c>
-      <c r="K40" s="28">
+      <c r="K40" s="27">
         <v>900000</v>
       </c>
-      <c r="L40" s="36"/>
+      <c r="L40" s="35"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="55"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="20"/>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="27">
         <v>463.56</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="27">
         <v>61.18</v>
       </c>
-      <c r="G41" s="38">
+      <c r="G41" s="37">
         <v>10286.44</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H41" s="27">
         <v>13</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="27">
         <v>8</v>
       </c>
-      <c r="J41" s="27">
+      <c r="J41" s="26">
         <v>1844</v>
       </c>
-      <c r="K41" s="28">
+      <c r="K41" s="27">
         <v>512000</v>
       </c>
-      <c r="L41" s="34"/>
+      <c r="L41" s="33"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="51"/>
+      <c r="B42" s="47"/>
       <c r="C42" s="20"/>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="36"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="35"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="55"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="20"/>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E43" s="27">
         <v>2725.61</v>
       </c>
-      <c r="F43" s="28">
+      <c r="F43" s="27">
         <v>61.41</v>
       </c>
-      <c r="G43" s="38">
+      <c r="G43" s="37">
         <v>10694.39</v>
       </c>
-      <c r="H43" s="28">
+      <c r="H43" s="27">
         <v>24</v>
       </c>
-      <c r="I43" s="28">
+      <c r="I43" s="27">
         <v>25</v>
       </c>
-      <c r="J43" s="27">
+      <c r="J43" s="26">
         <v>2160</v>
       </c>
-      <c r="K43" s="28">
+      <c r="K43" s="27">
         <v>4000</v>
       </c>
-      <c r="L43" s="36"/>
+      <c r="L43" s="35"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="55"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="20"/>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="27">
         <v>1773.24</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="27">
         <v>57.94</v>
       </c>
-      <c r="G44" s="38">
+      <c r="G44" s="37">
         <v>10692.76</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H44" s="27">
         <v>13</v>
       </c>
-      <c r="I44" s="28">
+      <c r="I44" s="27">
         <v>19</v>
       </c>
-      <c r="J44" s="27">
+      <c r="J44" s="26">
         <v>3173</v>
       </c>
-      <c r="K44" s="28">
+      <c r="K44" s="27">
         <v>2500</v>
       </c>
-      <c r="L44" s="36"/>
+      <c r="L44" s="35"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="55"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="20"/>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="27">
         <v>2500.79</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="27">
         <v>58.99</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="37">
         <v>11269.21</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45" s="27">
         <v>19</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45" s="27">
         <v>28</v>
       </c>
-      <c r="J45" s="27">
+      <c r="J45" s="26">
         <v>1070</v>
       </c>
-      <c r="K45" s="28">
+      <c r="K45" s="27">
         <v>700</v>
       </c>
-      <c r="L45" s="36"/>
+      <c r="L45" s="35"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B46" s="55"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="20"/>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="27">
         <v>6220.63</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="27">
         <v>59.44</v>
       </c>
-      <c r="G46" s="38">
+      <c r="G46" s="37">
         <v>10229.370000000001</v>
       </c>
-      <c r="H46" s="28">
+      <c r="H46" s="27">
         <v>32</v>
       </c>
-      <c r="I46" s="28">
+      <c r="I46" s="27">
         <v>43</v>
       </c>
-      <c r="J46" s="27">
+      <c r="J46" s="26">
         <v>3062</v>
       </c>
-      <c r="K46" s="28">
+      <c r="K46" s="27">
         <v>900000</v>
       </c>
-      <c r="L46" s="36"/>
+      <c r="L46" s="35"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B47" s="55"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="20"/>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="27">
         <v>5674</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="27">
         <v>61.54</v>
       </c>
-      <c r="G47" s="38">
+      <c r="G47" s="37">
         <v>10396</v>
       </c>
-      <c r="H47" s="28">
+      <c r="H47" s="27">
         <v>32</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="27">
         <v>44</v>
       </c>
-      <c r="J47" s="27">
+      <c r="J47" s="26">
         <v>2530</v>
       </c>
-      <c r="K47" s="28">
+      <c r="K47" s="27">
         <v>25600</v>
       </c>
-      <c r="L47" s="34"/>
+      <c r="L47" s="33"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B48" s="52"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="58" t="s">
+      <c r="D48" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="36"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="35"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" s="55"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="27">
         <v>3969.18</v>
       </c>
-      <c r="F49" s="28">
+      <c r="F49" s="27">
         <v>69.53</v>
       </c>
-      <c r="G49" s="38">
+      <c r="G49" s="37">
         <v>9400.82</v>
       </c>
-      <c r="H49" s="28">
+      <c r="H49" s="27">
         <v>30</v>
       </c>
-      <c r="I49" s="28">
+      <c r="I49" s="27">
         <v>38</v>
       </c>
-      <c r="J49" s="27">
+      <c r="J49" s="26">
         <v>2195</v>
       </c>
-      <c r="K49" s="28">
+      <c r="K49" s="27">
         <v>4000</v>
       </c>
-      <c r="L49" s="36"/>
+      <c r="L49" s="35"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="55"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="20"/>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="27">
         <v>2472.4899999999998</v>
       </c>
-      <c r="F50" s="28">
+      <c r="F50" s="27">
         <v>71.94</v>
       </c>
-      <c r="G50" s="38">
+      <c r="G50" s="37">
         <v>9577.51</v>
       </c>
-      <c r="H50" s="28">
+      <c r="H50" s="27">
         <v>26</v>
       </c>
-      <c r="I50" s="28">
+      <c r="I50" s="27">
         <v>35</v>
       </c>
-      <c r="J50" s="27">
+      <c r="J50" s="26">
         <v>2193</v>
       </c>
-      <c r="K50" s="28">
+      <c r="K50" s="27">
         <v>2500</v>
       </c>
-      <c r="L50" s="36"/>
+      <c r="L50" s="35"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="55"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="27">
         <v>3674.63</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="27">
         <v>69.849999999999994</v>
       </c>
-      <c r="G51" s="38">
+      <c r="G51" s="37">
         <v>9395.3700000000008</v>
       </c>
-      <c r="H51" s="28">
+      <c r="H51" s="27">
         <v>28</v>
       </c>
-      <c r="I51" s="28">
+      <c r="I51" s="27">
         <v>38</v>
       </c>
-      <c r="J51" s="27">
+      <c r="J51" s="26">
         <v>1087</v>
       </c>
-      <c r="K51" s="28">
+      <c r="K51" s="27">
         <v>700</v>
       </c>
-      <c r="L51" s="36"/>
+      <c r="L51" s="35"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="55"/>
+      <c r="B52" s="51"/>
       <c r="C52" s="20"/>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="28">
+      <c r="E52" s="27">
         <v>4689.71</v>
       </c>
-      <c r="F52" s="28">
+      <c r="F52" s="27">
         <v>68.5</v>
       </c>
-      <c r="G52" s="38">
+      <c r="G52" s="37">
         <v>9220.2900000000009</v>
       </c>
-      <c r="H52" s="28">
+      <c r="H52" s="27">
         <v>30</v>
       </c>
-      <c r="I52" s="28">
+      <c r="I52" s="27">
         <v>41</v>
       </c>
-      <c r="J52" s="27">
+      <c r="J52" s="26">
         <v>2272</v>
       </c>
-      <c r="K52" s="28">
+      <c r="K52" s="27">
         <v>900000</v>
       </c>
-      <c r="L52" s="36"/>
+      <c r="L52" s="35"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B53" s="55"/>
-      <c r="D53" s="27" t="s">
+      <c r="B53" s="51"/>
+      <c r="D53" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="28">
+      <c r="E53" s="27">
         <v>2539.19</v>
       </c>
-      <c r="F53" s="28">
+      <c r="F53" s="27">
         <v>65.23</v>
       </c>
-      <c r="G53" s="38">
+      <c r="G53" s="37">
         <v>10520.81</v>
       </c>
-      <c r="H53" s="28">
+      <c r="H53" s="27">
         <v>22</v>
       </c>
-      <c r="I53" s="28">
+      <c r="I53" s="27">
         <v>33</v>
       </c>
-      <c r="J53" s="27">
+      <c r="J53" s="26">
         <v>1120</v>
       </c>
-      <c r="K53" s="28">
+      <c r="K53" s="27">
         <v>256000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D2:K2"/>
     <mergeCell ref="D36:K36"/>
     <mergeCell ref="D42:K42"/>
     <mergeCell ref="D48:K48"/>
@@ -4833,7 +4793,6 @@
     <mergeCell ref="D10:K10"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:E35 E37:E41">
     <cfRule type="colorScale" priority="231">
@@ -5453,17 +5412,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="3" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D3" s="18" t="s">
@@ -5524,7 +5483,7 @@
       </c>
     </row>
     <row r="5" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -5609,27 +5568,27 @@
         <f>TopSim_Results!E11</f>
         <v>3760</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="43">
         <f>TopSim_Results!E17</f>
         <v>2734.69</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="43">
         <f>TopSim_Results!E23</f>
         <v>2582.06</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="43">
         <f>TopSim_Results!E31</f>
         <v>1097.22</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="43">
         <f>TopSim_Results!E37</f>
         <v>2739.48</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="43">
         <f>TopSim_Results!E43</f>
         <v>2725.61</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="43">
         <f>TopSim_Results!E49</f>
         <v>3969.18</v>
       </c>
@@ -5646,27 +5605,27 @@
         <f>TopSim_Results!E12</f>
         <v>3710</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="43">
         <f>TopSim_Results!E18</f>
         <v>1283.6400000000001</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="43">
         <f>TopSim_Results!E24</f>
         <v>759.18</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="43">
         <f>TopSim_Results!E32</f>
         <v>163.29</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="43">
         <f>TopSim_Results!E38</f>
         <v>2764.36</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="43">
         <f>TopSim_Results!E44</f>
         <v>1773.24</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="43">
         <f>TopSim_Results!E50</f>
         <v>2472.4899999999998</v>
       </c>
@@ -5683,27 +5642,27 @@
         <f>TopSim_Results!E13</f>
         <v>4060</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="43">
         <f>TopSim_Results!E19</f>
         <v>3024.68</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="43">
         <f>TopSim_Results!E25</f>
         <v>347.96</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="43">
         <f>TopSim_Results!E33</f>
         <v>2812.33</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="43">
         <f>TopSim_Results!E39</f>
         <v>2735.36</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="43">
         <f>TopSim_Results!E45</f>
         <v>2500.79</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="43">
         <f>TopSim_Results!E51</f>
         <v>3674.63</v>
       </c>
@@ -5720,27 +5679,27 @@
         <f>TopSim_Results!E14</f>
         <v>4350</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="43">
         <f>TopSim_Results!E20</f>
         <v>6288.33</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="43">
         <f>TopSim_Results!E26</f>
         <v>4869.4799999999996</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="43">
         <f>TopSim_Results!E34</f>
         <v>4184.3599999999997</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="43">
         <f>TopSim_Results!E40</f>
         <v>4047.22</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="43">
         <f>TopSim_Results!E46</f>
         <v>6220.63</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="43">
         <f>TopSim_Results!E52</f>
         <v>4689.71</v>
       </c>
@@ -5757,27 +5716,27 @@
         <f>TopSim_Results!E15</f>
         <v>1565</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="43">
         <f>TopSim_Results!E21</f>
         <v>5929.52</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="43">
         <f>TopSim_Results!E27</f>
         <v>255.88</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="43">
         <f>TopSim_Results!E35</f>
         <v>3734.99</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="43">
         <f>TopSim_Results!E41</f>
         <v>463.56</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="43">
         <f>TopSim_Results!E47</f>
         <v>5674</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="43">
         <f>TopSim_Results!E53</f>
         <v>2539.19</v>
       </c>
@@ -5787,10 +5746,10 @@
     <mergeCell ref="D2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:L5">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5838,7 +5797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE22436E-1B01-4E4E-82EB-F6524F9BD974}">
   <dimension ref="C3:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7:N34"/>
     </sheetView>
   </sheetViews>
@@ -5940,78 +5899,78 @@
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="61">
         <v>1.86</v>
       </c>
-      <c r="G6" s="70">
+      <c r="G6" s="61">
         <v>0.6</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="61">
         <v>1.8</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="61">
         <v>4.5</v>
       </c>
-      <c r="J6" s="70">
+      <c r="J6" s="61">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K6" s="70">
+      <c r="K6" s="61">
         <v>3.6</v>
       </c>
-      <c r="L6" s="70">
+      <c r="L6" s="61">
         <v>3</v>
       </c>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="M7" s="71" t="s">
+      <c r="M7" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="N7" s="71" t="s">
+      <c r="N7" s="62" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E9" s="7" t="s">
@@ -6271,18 +6230,18 @@
     <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="72"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="71"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D18" s="9"/>
@@ -6456,18 +6415,18 @@
     <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="9" t="s">
@@ -6645,18 +6604,18 @@
     <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="9" t="s">
@@ -7662,13 +7621,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F4" s="18" t="s">
@@ -7717,7 +7676,7 @@
       <c r="F7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="42">
         <f>MIS_results!F9</f>
         <v>62</v>
       </c>
@@ -7729,7 +7688,7 @@
       <c r="F8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="42">
         <f>MIS_results!F10</f>
         <v>58.93</v>
       </c>
@@ -7741,7 +7700,7 @@
       <c r="F9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="42">
         <f>MIS_results!F11</f>
         <v>59.1</v>
       </c>
@@ -7753,11 +7712,11 @@
       <c r="F10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="42">
         <f>MIS_results!F12</f>
         <v>62.8</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="42">
         <f>MIS_results!F18</f>
         <v>63.2</v>
       </c>
@@ -7774,11 +7733,11 @@
       <c r="F11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="42">
         <f>MIS_results!F13</f>
         <v>62.59</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="42">
         <f>MIS_results!F19</f>
         <v>62.31</v>
       </c>
@@ -7795,11 +7754,11 @@
       <c r="F12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="42">
         <f>MIS_results!F14</f>
         <v>64.290000000000006</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="42">
         <f>MIS_results!F20</f>
         <v>64.040000000000006</v>
       </c>
@@ -7816,11 +7775,11 @@
       <c r="F13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="42">
         <f>MIS_results!F15</f>
         <v>65.05</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="42">
         <f>MIS_results!F21</f>
         <v>65.040000000000006</v>
       </c>
@@ -7837,11 +7796,11 @@
       <c r="F14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="42">
         <f>MIS_results!F16</f>
         <v>65.040000000000006</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="42">
         <f>MIS_results!F22</f>
         <v>64.180000000000007</v>
       </c>
@@ -7871,10 +7830,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:J5">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",G4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7910,8 +7869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5353A2-5AB2-F84D-BC82-3A9A86144038}">
   <dimension ref="E4:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
